--- a/app/public/static/aktemp-stations-template.xlsx
+++ b/app/public/static/aktemp-stations-template.xlsx
@@ -1,63 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeff/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeff/git/ecosheds/aktemp/app/public/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7F6AF9D1-9297-2145-A14D-E74116A6E46F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4849BB-B449-B940-8CEE-09FCC38300A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300"/>
+    <workbookView xWindow="-25600" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="TABLE" sheetId="2" r:id="rId2"/>
+    <sheet name="STATIONS" sheetId="2" r:id="rId2"/>
+    <sheet name="EXAMPLES" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="76">
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>latitude</t>
-  </si>
-  <si>
-    <t>longitude</t>
-  </si>
-  <si>
-    <t>placement</t>
-  </si>
-  <si>
-    <t>timezone</t>
-  </si>
-  <si>
-    <t>waterbody_name</t>
-  </si>
-  <si>
-    <t>waterbody_type</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>mixed</t>
-  </si>
-  <si>
-    <t>reference</t>
-  </si>
-  <si>
-    <t>private</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="72">
   <si>
     <t>MAIN</t>
   </si>
@@ -74,18 +51,9 @@
     <t>LAKE</t>
   </si>
   <si>
-    <t>SITE 001</t>
-  </si>
-  <si>
     <t>SITE 002</t>
   </si>
   <si>
-    <t>SITE 003</t>
-  </si>
-  <si>
-    <t>UNKNOWN</t>
-  </si>
-  <si>
     <t>https://nwis.waterdata.usgs.gov/…</t>
   </si>
   <si>
@@ -95,33 +63,18 @@
     <t>Echo Lake</t>
   </si>
   <si>
-    <t>AKTEMP Stations Table Template</t>
-  </si>
-  <si>
     <t>Updated:</t>
   </si>
   <si>
     <t>Description:</t>
   </si>
   <si>
-    <t>Spreadsheet template to generate stations table for batch importing into AKTEMP</t>
-  </si>
-  <si>
     <t>Instructions:</t>
   </si>
   <si>
-    <t>1. Read column descriptions and requirements below</t>
-  </si>
-  <si>
-    <t>4. Click submit to save stations (or fix validation errors, if any)</t>
-  </si>
-  <si>
     <t>Columns:</t>
   </si>
   <si>
-    <t>Station Code</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -149,87 +102,39 @@
     <t>Well-mixed</t>
   </si>
   <si>
-    <t>Reference</t>
-  </si>
-  <si>
     <t>Private</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
-    <t>must be unique within an organization</t>
-  </si>
-  <si>
     <t>max 250 characters</t>
   </si>
   <si>
-    <t>between 4-50 characters</t>
-  </si>
-  <si>
     <t>decimal degrees</t>
   </si>
   <si>
-    <t>decimal degrees (negative since AK is west of central meridian)</t>
-  </si>
-  <si>
     <t>decimal between -90 and 90</t>
   </si>
   <si>
     <t>decimal between -180 and 180</t>
   </si>
   <si>
-    <t>'US/Alaska' or 'US/Pacific'</t>
-  </si>
-  <si>
     <t>local timezone of station</t>
   </si>
   <si>
-    <t>'MAIN', 'SIDE', 'UNKNOWN'</t>
-  </si>
-  <si>
-    <t>location within channel (Main Channel or Side Channel)</t>
-  </si>
-  <si>
     <t>name of waterbody</t>
   </si>
   <si>
-    <t>type of waterbody</t>
-  </si>
-  <si>
-    <t>indicates if station is actively monitored</t>
-  </si>
-  <si>
-    <t>indicates if station is located within well-mixed portion of the waterbody</t>
-  </si>
-  <si>
     <t>URL to external data source (e.g., Inletkeeper, USGS NWIS)</t>
   </si>
   <si>
-    <t xml:space="preserve">indicates if station and associated data should be kept private. </t>
-  </si>
-  <si>
-    <t>'TRUE', 'FALSE', 'UNKNOWN'</t>
-  </si>
-  <si>
-    <t>'TRUE', 'FALSE'</t>
-  </si>
-  <si>
-    <t>'STREAM', 'LAKE', 'OTHER', 'UNKNOWN'</t>
-  </si>
-  <si>
     <t>valid URL</t>
   </si>
   <si>
     <t>narrative description of the station location (e.g., relative to roads or other geographic features)</t>
   </si>
   <si>
-    <t>Column Name</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
     <t>Required</t>
   </si>
   <si>
@@ -245,17 +150,117 @@
     <t>OTHER</t>
   </si>
   <si>
-    <t>2. Fill out stations on TABLE sheet</t>
-  </si>
-  <si>
-    <t>3. Copy and paste station rows (excluding header row) from TABLE to the Stations Batch Import table in AKTEMP</t>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Reference URL</t>
+  </si>
+  <si>
+    <t>Mining Canal near Fairbanks</t>
+  </si>
+  <si>
+    <t>Echo Lake near center</t>
+  </si>
+  <si>
+    <t>ECHO</t>
+  </si>
+  <si>
+    <t>Definitions:</t>
+  </si>
+  <si>
+    <t>1. Read column descriptions and definitions below (note that definitions of various options are defined below the Columns table) and review example file configurations on EXAMPLES sheet</t>
+  </si>
+  <si>
+    <t>2. Fill out stations on STATIONS sheet</t>
+  </si>
+  <si>
+    <t>3. Copy and paste station rows (excluding header row) from STATIONS to the Stations Batch Import table in AKTEMP</t>
+  </si>
+  <si>
+    <t>5. Fix any validation or other errors that are reported (if any), and click Submit to try again.</t>
+  </si>
+  <si>
+    <t>4. Click submit to save stations to AKTEMP</t>
+  </si>
+  <si>
+    <t>between 1-50 characters</t>
+  </si>
+  <si>
+    <t>brief name or ID of that station. must be unique within an organization.</t>
+  </si>
+  <si>
+    <t>decimal degrees (should be negative since AK is west of central meridian)</t>
+  </si>
+  <si>
+    <t>US/Alaska, US/Pacific</t>
+  </si>
+  <si>
+    <t>Placement:</t>
+  </si>
+  <si>
+    <t>main channel</t>
+  </si>
+  <si>
+    <t>side channel</t>
+  </si>
+  <si>
+    <t>location within channel (main channel or side channel). See definitions below.
+leave blank if unknown or not applicable (e.g., station is in a lake)</t>
+  </si>
+  <si>
+    <t>MAIN, SIDE</t>
+  </si>
+  <si>
+    <t>TRUE, FALSE</t>
+  </si>
+  <si>
+    <t>indicates if station is located within well-mixed portion of the waterbody. leave blank if unknown.</t>
+  </si>
+  <si>
+    <t>indicates if station and associated data should be kept private and not appear on the public data explorer</t>
+  </si>
+  <si>
+    <t>STREAM, LAKE, OTHER</t>
+  </si>
+  <si>
+    <t>type of waterbody. leave blank if unknown.</t>
+  </si>
+  <si>
+    <t>indicates if station is actively monitored. leave blank if unknown. leave blank if unknown.</t>
+  </si>
+  <si>
+    <t>Waterbody Type:</t>
+  </si>
+  <si>
+    <t>free-flowing stream or river</t>
+  </si>
+  <si>
+    <t>lake or pond</t>
+  </si>
+  <si>
+    <t>wetlands, or man-made channel</t>
+  </si>
+  <si>
+    <t>Template and instructions for creating stations table for batch importing into AKTEMP</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>AKTEMP Batch Import Stations Template</t>
+  </si>
+  <si>
+    <t>max 50 characters</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="25" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+  </numFmts>
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -444,6 +449,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -632,7 +645,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -756,6 +769,105 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -802,7 +914,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -815,15 +927,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -839,6 +942,57 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -900,7 +1054,83 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -916,80 +1146,6 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1004,14 +1160,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B12:F24" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="B12:F24"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Column Name" dataDxfId="6"/>
-    <tableColumn id="2" name="Label" dataDxfId="5"/>
-    <tableColumn id="3" name="Required" dataDxfId="4"/>
-    <tableColumn id="4" name="Allowed Values" dataDxfId="3"/>
-    <tableColumn id="5" name="Notes" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B13:E25" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="B13:E25" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="4">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Required" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Allowed Values" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1313,307 +1468,321 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="93.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="3">
-        <v>44692</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="B3" s="21">
+        <v>44812</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="20" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="20" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="20" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="40" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="20" x14ac:dyDescent="0.25">
+      <c r="B20" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="20" x14ac:dyDescent="0.25">
+      <c r="B21" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="20" x14ac:dyDescent="0.25">
+      <c r="B22" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="40" x14ac:dyDescent="0.25">
+      <c r="B23" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="20" x14ac:dyDescent="0.25">
+      <c r="B24" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="26"/>
+      <c r="D24" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="3" t="s">
+    <row r="25" spans="1:5" ht="40" x14ac:dyDescent="0.25">
+      <c r="B25" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="17"/>
+      <c r="C28" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="18"/>
+      <c r="C30" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="20"/>
+      <c r="C31" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>61</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B7:E7"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -1622,172 +1791,257 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="40" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="10"/>
+    <col min="1" max="1" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="40" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD5184F-52B3-EF46-AA5F-BE0833D74299}">
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="40" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="8">
+        <v>61.5</v>
+      </c>
+      <c r="D2" s="8">
+        <v>-152.38200000000001</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="G2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="13" t="s">
+      <c r="K2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="8">
+        <v>62.23</v>
+      </c>
+      <c r="D3" s="8">
+        <v>-151.23099999999999</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="8">
+        <v>63.98</v>
+      </c>
+      <c r="D4" s="8">
+        <v>-153.42099999999999</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="11">
-        <v>61.5</v>
-      </c>
-      <c r="D2" s="11">
-        <v>-152.38200000000001</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11">
-        <v>62.23</v>
-      </c>
-      <c r="D3" s="11">
-        <v>-151.23099999999999</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="11" t="b">
+      <c r="I4" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="L3" s="11" t="b">
+      <c r="J4" s="8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11">
-        <v>63.98</v>
-      </c>
-      <c r="D4" s="11">
-        <v>-153.42099999999999</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="11" t="b">
+      <c r="L4" s="8" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1"/>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{31D4F587-408C-5540-A8E2-FBA868C42EEB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/app/public/static/aktemp-stations-template.xlsx
+++ b/app/public/static/aktemp-stations-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeff/git/ecosheds/aktemp/app/public/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4849BB-B449-B940-8CEE-09FCC38300A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00763DC9-0206-AD46-8AC3-2127D96F8EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25600" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="72">
   <si>
     <t>MAIN</t>
   </si>
@@ -217,9 +217,6 @@
     <t>indicates if station is located within well-mixed portion of the waterbody. leave blank if unknown.</t>
   </si>
   <si>
-    <t>indicates if station and associated data should be kept private and not appear on the public data explorer</t>
-  </si>
-  <si>
     <t>STREAM, LAKE, OTHER</t>
   </si>
   <si>
@@ -251,6 +248,9 @@
   </si>
   <si>
     <t>max 50 characters</t>
+  </si>
+  <si>
+    <t>indicates if station and associated data should be kept private and not appear on the public data explorer (default = FALSE)</t>
   </si>
 </sst>
 </file>
@@ -914,7 +914,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -945,9 +945,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
@@ -963,26 +960,25 @@
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -993,6 +989,9 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1471,7 +1470,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1485,14 +1486,14 @@
   <sheetData>
     <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="20">
         <v>44812</v>
       </c>
     </row>
@@ -1505,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1516,12 +1517,12 @@
       <c r="A7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
@@ -1554,229 +1555,227 @@
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="23" t="s">
+      <c r="B13" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="25" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="25" t="s">
+      <c r="C15" s="24"/>
+      <c r="D15" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="26" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="26" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="26" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="25" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="40" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="29" t="s">
+      <c r="C19" s="24"/>
+      <c r="D19" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="25" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20" x14ac:dyDescent="0.25">
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="25" t="s">
+      <c r="C20" s="24"/>
+      <c r="D20" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="20" x14ac:dyDescent="0.25">
+      <c r="B21" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="20" x14ac:dyDescent="0.25">
+      <c r="B22" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="40" x14ac:dyDescent="0.25">
+      <c r="B23" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="20" x14ac:dyDescent="0.25">
+      <c r="B24" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="40" x14ac:dyDescent="0.25">
+      <c r="B25" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="25" t="s">
         <v>71</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="20" x14ac:dyDescent="0.25">
-      <c r="B21" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="20" x14ac:dyDescent="0.25">
-      <c r="B22" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="40" x14ac:dyDescent="0.25">
-      <c r="B23" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="20" x14ac:dyDescent="0.25">
-      <c r="B24" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="40" x14ac:dyDescent="0.25">
-      <c r="B25" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="13" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="17"/>
-      <c r="C28" s="31" t="s">
+      <c r="B28" s="16"/>
+      <c r="C28" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="14" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="14" t="s">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="17"/>
+      <c r="C30" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="18" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="18"/>
-      <c r="C30" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="19" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="19"/>
+      <c r="C31" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="14" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="20"/>
-      <c r="C31" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/app/public/static/aktemp-stations-template.xlsx
+++ b/app/public/static/aktemp-stations-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeff/git/ecosheds/aktemp/app/public/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00763DC9-0206-AD46-8AC3-2127D96F8EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4BCB8C-D827-954C-BBA7-66BD2EA56B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25600" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51200" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -940,9 +940,6 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -992,6 +989,9 @@
     </xf>
     <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1053,22 +1053,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1084,6 +1069,21 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1162,10 +1162,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B13:E25" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="B13:E25" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Required" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Allowed Values" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Notes" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Required" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Allowed Values" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Notes" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1470,14 +1470,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="39" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="93.5" style="1" bestFit="1" customWidth="1"/>
@@ -1493,8 +1491,8 @@
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="20">
-        <v>44812</v>
+      <c r="B3" s="19">
+        <v>44831</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1514,15 +1512,15 @@
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
@@ -1558,10 +1556,10 @@
       <c r="B13" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="20" t="s">
         <v>34</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -1573,120 +1571,120 @@
       <c r="B14" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="24" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>25</v>
+      <c r="D16" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>51</v>
+      <c r="D17" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
       <c r="B18" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="40" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="20" x14ac:dyDescent="0.25">
       <c r="B19" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="20" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="40" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="27" t="s">
+      <c r="C21" s="23"/>
+      <c r="D21" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E21" s="24" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="20" x14ac:dyDescent="0.25">
-      <c r="B20" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="20" x14ac:dyDescent="0.25">
-      <c r="B21" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20" x14ac:dyDescent="0.25">
       <c r="B22" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="27" t="s">
+      <c r="C22" s="23"/>
+      <c r="D22" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="24" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1694,11 +1692,11 @@
       <c r="B23" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="27" t="s">
+      <c r="C23" s="23"/>
+      <c r="D23" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="24" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1706,11 +1704,11 @@
       <c r="B24" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="23" t="s">
+      <c r="C24" s="23"/>
+      <c r="D24" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="24" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1718,11 +1716,11 @@
       <c r="B25" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="27" t="s">
+      <c r="C25" s="23"/>
+      <c r="D25" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="24" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1730,51 +1728,51 @@
       <c r="A27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="12" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="16"/>
-      <c r="C28" s="29" t="s">
+      <c r="B28" s="15"/>
+      <c r="C28" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="13" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="12" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="17"/>
-      <c r="C30" s="30" t="s">
+      <c r="B30" s="16"/>
+      <c r="C30" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="17" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="19"/>
-      <c r="C31" s="29" t="s">
+      <c r="B31" s="18"/>
+      <c r="C31" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1791,87 +1789,63 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="40" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="15.33203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="23" style="7" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="32.1640625" style="7" customWidth="1"/>
+    <col min="8" max="11" width="21.83203125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="12" style="7" customWidth="1"/>
     <col min="13" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="10" t="s">
+      <c r="H1" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="31" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
       <c r="K2" s="9"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1883,19 +1857,19 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="13.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="40" style="8" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.33203125" style="8" bestFit="1" customWidth="1"/>
@@ -1907,36 +1881,36 @@
         <v>38</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1944,37 +1918,37 @@
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="7">
+        <v>61.5</v>
+      </c>
+      <c r="C2" s="7">
+        <v>-152.38200000000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="8">
-        <v>61.5</v>
-      </c>
-      <c r="D2" s="8">
-        <v>-152.38200000000001</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="8" t="b">
+      <c r="I2" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="J2" s="8" t="b">
+      <c r="J2" s="7" t="b">
         <v>1</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="8" t="b">
+      <c r="L2" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1982,26 +1956,29 @@
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="7">
+        <v>62.23</v>
+      </c>
+      <c r="C3" s="7">
+        <v>-151.23099999999999</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="8">
-        <v>62.23</v>
-      </c>
-      <c r="D3" s="8">
-        <v>-151.23099999999999</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="8" t="b">
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2009,32 +1986,33 @@
       <c r="A4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="7">
+        <v>63.98</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-153.42099999999999</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="8">
-        <v>63.98</v>
-      </c>
-      <c r="D4" s="8">
-        <v>-153.42099999999999</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="H4" s="7"/>
+      <c r="I4" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="8" t="b">
+      <c r="J4" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="J4" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" s="8" t="b">
+      <c r="K4" s="7"/>
+      <c r="L4" s="7" t="b">
         <v>0</v>
       </c>
     </row>

--- a/app/public/static/aktemp-stations-template.xlsx
+++ b/app/public/static/aktemp-stations-template.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeff/git/ecosheds/aktemp/app/public/static/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeff/git/aktemp/app/public/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4BCB8C-D827-954C-BBA7-66BD2EA56B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182EF91D-7CF0-ED45-BDC3-D2ED6E0AD17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
     <sheet name="STATIONS" sheetId="2" r:id="rId2"/>
     <sheet name="EXAMPLES" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="placement">README!$C$33:$C$39</definedName>
+    <definedName name="timezone">README!$C$27:$C$29</definedName>
+    <definedName name="waterbody_type">README!$C$30:$C$32</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>MAIN</t>
   </si>
@@ -114,12 +119,6 @@
     <t>decimal degrees</t>
   </si>
   <si>
-    <t>decimal between -90 and 90</t>
-  </si>
-  <si>
-    <t>decimal between -180 and 180</t>
-  </si>
-  <si>
     <t>local timezone of station</t>
   </si>
   <si>
@@ -129,9 +128,6 @@
     <t>URL to external data source (e.g., Inletkeeper, USGS NWIS)</t>
   </si>
   <si>
-    <t>valid URL</t>
-  </si>
-  <si>
     <t>narrative description of the station location (e.g., relative to roads or other geographic features)</t>
   </si>
   <si>
@@ -183,61 +179,24 @@
     <t>4. Click submit to save stations to AKTEMP</t>
   </si>
   <si>
-    <t>between 1-50 characters</t>
-  </si>
-  <si>
     <t>brief name or ID of that station. must be unique within an organization.</t>
   </si>
   <si>
     <t>decimal degrees (should be negative since AK is west of central meridian)</t>
   </si>
   <si>
-    <t>US/Alaska, US/Pacific</t>
-  </si>
-  <si>
     <t>Placement:</t>
   </si>
   <si>
-    <t>main channel</t>
-  </si>
-  <si>
-    <t>side channel</t>
-  </si>
-  <si>
-    <t>location within channel (main channel or side channel). See definitions below.
-leave blank if unknown or not applicable (e.g., station is in a lake)</t>
-  </si>
-  <si>
-    <t>MAIN, SIDE</t>
-  </si>
-  <si>
     <t>TRUE, FALSE</t>
   </si>
   <si>
-    <t>indicates if station is located within well-mixed portion of the waterbody. leave blank if unknown.</t>
-  </si>
-  <si>
     <t>STREAM, LAKE, OTHER</t>
   </si>
   <si>
-    <t>type of waterbody. leave blank if unknown.</t>
-  </si>
-  <si>
-    <t>indicates if station is actively monitored. leave blank if unknown. leave blank if unknown.</t>
-  </si>
-  <si>
     <t>Waterbody Type:</t>
   </si>
   <si>
-    <t>free-flowing stream or river</t>
-  </si>
-  <si>
-    <t>lake or pond</t>
-  </si>
-  <si>
-    <t>wetlands, or man-made channel</t>
-  </si>
-  <si>
     <t>Template and instructions for creating stations table for batch importing into AKTEMP</t>
   </si>
   <si>
@@ -251,6 +210,111 @@
   </si>
   <si>
     <t>indicates if station and associated data should be kept private and not appear on the public data explorer (default = FALSE)</t>
+  </si>
+  <si>
+    <t>LIMNETIC</t>
+  </si>
+  <si>
+    <t>LAKESHORE</t>
+  </si>
+  <si>
+    <t>INLET</t>
+  </si>
+  <si>
+    <t>OUTLET</t>
+  </si>
+  <si>
+    <t>Main Channel (Stream)</t>
+  </si>
+  <si>
+    <t>Side Channel (Stream)</t>
+  </si>
+  <si>
+    <t>Limnetic Zone (Lake)</t>
+  </si>
+  <si>
+    <t>Lakeshore (Lake)</t>
+  </si>
+  <si>
+    <t>Inlet (Lake)</t>
+  </si>
+  <si>
+    <t>Outlet (Lake)</t>
+  </si>
+  <si>
+    <t>Free-flowing stream or river</t>
+  </si>
+  <si>
+    <t>Lake, pond, or reservoir</t>
+  </si>
+  <si>
+    <t>Other (wetlands, man-made channel)</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>MAIN, SIDE, LIMNETIC, LAKESHORE, INLET, OUTLET, OTHER</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>decimal between -45 and 75</t>
+  </si>
+  <si>
+    <t>decimal between -125 and -180</t>
+  </si>
+  <si>
+    <t>type of waterbody (see definitions below)</t>
+  </si>
+  <si>
+    <t>location within waterbody (see definitions below)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indicates if station is located within well-mixed portion of the waterbody </t>
+  </si>
+  <si>
+    <t>indicates if station is actively monitored</t>
+  </si>
+  <si>
+    <t>SITE 001</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>A minimal example with only the required fields provided</t>
+  </si>
+  <si>
+    <t>Station in the main channel of a free-flowing stream, with data obtained from USGS NWIS.</t>
+  </si>
+  <si>
+    <t>An active station in the well-mixed, limnetic zone of a lake</t>
+  </si>
+  <si>
+    <t>Station in the side channel of a free-flowing stream, marked as private so it does not appear in the public data explorer</t>
+  </si>
+  <si>
+    <t>Timezone:</t>
+  </si>
+  <si>
+    <t>US/Aleutian</t>
+  </si>
+  <si>
+    <t>US/Pacific</t>
+  </si>
+  <si>
+    <t>US/Aleutian (UTC-10 / UTC-9)</t>
+  </si>
+  <si>
+    <t>US/Alaska (UTC-9 / UTC-8)</t>
+  </si>
+  <si>
+    <t>US/Aleutian, US/Alaska, US/Pacific</t>
+  </si>
+  <si>
+    <t>US/Pacific (UTC-8 / UTC-7)</t>
   </si>
 </sst>
 </file>
@@ -458,7 +522,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -641,6 +705,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -914,7 +984,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -987,11 +1057,35 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1053,7 +1147,22 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1083,22 +1192,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -1162,10 +1256,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B13:E25" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="B13:E25" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Required" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Allowed Values" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Notes" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Required" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Allowed Values" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1468,7 +1562,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1476,15 +1570,16 @@
   <cols>
     <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="39" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="93.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="73.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="93.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1492,7 +1587,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="19">
-        <v>44831</v>
+        <v>44861</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1504,7 +1599,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1515,35 +1610,35 @@
       <c r="A7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
+      <c r="B7" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1554,31 +1649,31 @@
         <v>12</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" x14ac:dyDescent="0.25">
@@ -1590,7 +1685,7 @@
         <v>23</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="E15" s="25" t="s">
         <v>25</v>
@@ -1605,10 +1700,10 @@
         <v>23</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20" x14ac:dyDescent="0.25">
@@ -1620,22 +1715,23 @@
         <v>23</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
       <c r="B18" s="23" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C18" s="23"/>
-      <c r="D18" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>61</v>
+      <c r="D18" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20" x14ac:dyDescent="0.25">
@@ -1644,23 +1740,22 @@
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="22" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
       <c r="B20" s="23" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C20" s="23"/>
-      <c r="D20" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>32</v>
+      <c r="D20" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="40" x14ac:dyDescent="0.25">
@@ -1669,47 +1764,47 @@
         <v>16</v>
       </c>
       <c r="C21" s="23"/>
-      <c r="D21" s="26" t="s">
-        <v>57</v>
+      <c r="D21" s="39" t="s">
+        <v>71</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20" x14ac:dyDescent="0.25">
       <c r="B22" s="23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C22" s="23"/>
       <c r="D22" s="26" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="40" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="20" x14ac:dyDescent="0.25">
       <c r="B23" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="26" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20" x14ac:dyDescent="0.25">
       <c r="B24" s="23" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="22" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="40" x14ac:dyDescent="0.25">
@@ -1718,62 +1813,136 @@
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="26" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="C27" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="16"/>
+      <c r="C28" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="18"/>
+      <c r="C29" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="16"/>
+      <c r="C31" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="18"/>
+      <c r="C32" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="D27" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="15"/>
-      <c r="C28" s="28" t="s">
+      <c r="D33" s="36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="32"/>
+      <c r="C34" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="14" t="s">
+      <c r="D34" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="32"/>
+      <c r="C35" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="12" t="s">
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="32"/>
+      <c r="C36" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="37" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="16"/>
-      <c r="C30" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="17" t="s">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="32"/>
+      <c r="C37" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="37" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="18"/>
-      <c r="C31" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="13" t="s">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="32"/>
+      <c r="C38" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" s="37" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="15"/>
+      <c r="C39" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="38" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1789,236 +1958,1812 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="4" width="15.33203125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="23" style="7" customWidth="1"/>
+    <col min="5" max="5" width="32.1640625" style="7" customWidth="1"/>
     <col min="6" max="6" width="24.6640625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="32.1640625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="23" style="7" customWidth="1"/>
     <col min="8" max="11" width="21.83203125" style="7" customWidth="1"/>
     <col min="12" max="12" width="12" style="7" customWidth="1"/>
     <col min="13" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="31" t="s">
+      <c r="A1" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" s="31" t="s">
+      <c r="K1" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="30" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="K2" s="9"/>
     </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="9"/>
+    </row>
+    <row r="22" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="9"/>
+    </row>
+    <row r="23" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="9"/>
+    </row>
+    <row r="24" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="9"/>
+    </row>
+    <row r="25" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="9"/>
+    </row>
+    <row r="27" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="9"/>
+    </row>
+    <row r="28" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="9"/>
+    </row>
+    <row r="29" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="9"/>
+    </row>
+    <row r="30" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="9"/>
+    </row>
+    <row r="31" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="9"/>
+    </row>
+    <row r="32" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="9"/>
+    </row>
+    <row r="33" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="9"/>
+    </row>
+    <row r="34" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="9"/>
+    </row>
+    <row r="35" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="9"/>
+    </row>
+    <row r="36" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K36" s="9"/>
+    </row>
+    <row r="37" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K37" s="9"/>
+    </row>
+    <row r="38" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="9"/>
+    </row>
+    <row r="39" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K39" s="9"/>
+    </row>
+    <row r="40" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K40" s="9"/>
+    </row>
+    <row r="41" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="9"/>
+    </row>
+    <row r="42" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="9"/>
+    </row>
+    <row r="43" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="9"/>
+    </row>
+    <row r="44" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="9"/>
+    </row>
+    <row r="45" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="9"/>
+    </row>
+    <row r="46" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="9"/>
+    </row>
+    <row r="47" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="9"/>
+    </row>
+    <row r="48" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="9"/>
+    </row>
+    <row r="49" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="9"/>
+    </row>
+    <row r="50" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="9"/>
+    </row>
+    <row r="51" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="9"/>
+    </row>
+    <row r="52" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="9"/>
+    </row>
+    <row r="53" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="9"/>
+    </row>
+    <row r="54" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="9"/>
+    </row>
+    <row r="55" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K55" s="9"/>
+    </row>
+    <row r="56" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K56" s="9"/>
+    </row>
+    <row r="57" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="9"/>
+    </row>
+    <row r="58" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="9"/>
+    </row>
+    <row r="59" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="9"/>
+    </row>
+    <row r="60" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="9"/>
+    </row>
+    <row r="61" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="9"/>
+    </row>
+    <row r="62" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="9"/>
+    </row>
+    <row r="63" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="9"/>
+    </row>
+    <row r="64" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="9"/>
+    </row>
+    <row r="65" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="9"/>
+    </row>
+    <row r="66" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="9"/>
+    </row>
+    <row r="67" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K67" s="9"/>
+    </row>
+    <row r="68" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="9"/>
+    </row>
+    <row r="69" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="9"/>
+    </row>
+    <row r="70" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="9"/>
+    </row>
+    <row r="71" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="9"/>
+    </row>
+    <row r="72" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="9"/>
+    </row>
+    <row r="73" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="9"/>
+    </row>
+    <row r="74" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="9"/>
+    </row>
+    <row r="75" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="9"/>
+    </row>
+    <row r="76" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="9"/>
+    </row>
+    <row r="77" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="9"/>
+    </row>
+    <row r="78" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K78" s="9"/>
+    </row>
+    <row r="79" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K79" s="9"/>
+    </row>
+    <row r="80" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="9"/>
+    </row>
+    <row r="81" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="9"/>
+    </row>
+    <row r="82" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K82" s="9"/>
+    </row>
+    <row r="83" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="9"/>
+    </row>
+    <row r="84" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="9"/>
+    </row>
+    <row r="85" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="9"/>
+    </row>
+    <row r="86" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="9"/>
+    </row>
+    <row r="87" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="9"/>
+    </row>
+    <row r="88" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="9"/>
+    </row>
+    <row r="89" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="9"/>
+    </row>
+    <row r="90" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K90" s="9"/>
+    </row>
+    <row r="91" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="9"/>
+    </row>
+    <row r="92" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="9"/>
+    </row>
+    <row r="93" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="9"/>
+    </row>
+    <row r="94" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="9"/>
+    </row>
+    <row r="95" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K95" s="9"/>
+    </row>
+    <row r="96" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="9"/>
+    </row>
+    <row r="97" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="9"/>
+    </row>
+    <row r="98" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="9"/>
+    </row>
+    <row r="99" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="9"/>
+    </row>
+    <row r="100" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="9"/>
+    </row>
+    <row r="101" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="9"/>
+    </row>
+    <row r="102" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K102" s="9"/>
+    </row>
+    <row r="103" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K103" s="9"/>
+    </row>
+    <row r="104" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K104" s="9"/>
+    </row>
+    <row r="105" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K105" s="9"/>
+    </row>
+    <row r="106" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K106" s="9"/>
+    </row>
+    <row r="107" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K107" s="9"/>
+    </row>
+    <row r="108" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K108" s="9"/>
+    </row>
+    <row r="109" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K109" s="9"/>
+    </row>
+    <row r="110" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K110" s="9"/>
+    </row>
+    <row r="111" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K111" s="9"/>
+    </row>
+    <row r="112" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K112" s="9"/>
+    </row>
+    <row r="113" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K113" s="9"/>
+    </row>
+    <row r="114" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K114" s="9"/>
+    </row>
+    <row r="115" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K115" s="9"/>
+    </row>
+    <row r="116" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K116" s="9"/>
+    </row>
+    <row r="117" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K117" s="9"/>
+    </row>
+    <row r="118" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K118" s="9"/>
+    </row>
+    <row r="119" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K119" s="9"/>
+    </row>
+    <row r="120" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K120" s="9"/>
+    </row>
+    <row r="121" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K121" s="9"/>
+    </row>
+    <row r="122" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K122" s="9"/>
+    </row>
+    <row r="123" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K123" s="9"/>
+    </row>
+    <row r="124" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K124" s="9"/>
+    </row>
+    <row r="125" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K125" s="9"/>
+    </row>
+    <row r="126" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K126" s="9"/>
+    </row>
+    <row r="127" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K127" s="9"/>
+    </row>
+    <row r="128" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K128" s="9"/>
+    </row>
+    <row r="129" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K129" s="9"/>
+    </row>
+    <row r="130" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K130" s="9"/>
+    </row>
+    <row r="131" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K131" s="9"/>
+    </row>
+    <row r="132" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K132" s="9"/>
+    </row>
+    <row r="133" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K133" s="9"/>
+    </row>
+    <row r="134" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K134" s="9"/>
+    </row>
+    <row r="135" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K135" s="9"/>
+    </row>
+    <row r="136" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K136" s="9"/>
+    </row>
+    <row r="137" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K137" s="9"/>
+    </row>
+    <row r="138" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K138" s="9"/>
+    </row>
+    <row r="139" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K139" s="9"/>
+    </row>
+    <row r="140" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K140" s="9"/>
+    </row>
+    <row r="141" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K141" s="9"/>
+    </row>
+    <row r="142" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K142" s="9"/>
+    </row>
+    <row r="143" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K143" s="9"/>
+    </row>
+    <row r="144" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K144" s="9"/>
+    </row>
+    <row r="145" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K145" s="9"/>
+    </row>
+    <row r="146" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K146" s="9"/>
+    </row>
+    <row r="147" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K147" s="9"/>
+    </row>
+    <row r="148" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K148" s="9"/>
+    </row>
+    <row r="149" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K149" s="9"/>
+    </row>
+    <row r="150" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K150" s="9"/>
+    </row>
+    <row r="151" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K151" s="9"/>
+    </row>
+    <row r="152" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K152" s="9"/>
+    </row>
+    <row r="153" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K153" s="9"/>
+    </row>
+    <row r="154" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K154" s="9"/>
+    </row>
+    <row r="155" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K155" s="9"/>
+    </row>
+    <row r="156" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K156" s="9"/>
+    </row>
+    <row r="157" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K157" s="9"/>
+    </row>
+    <row r="158" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K158" s="9"/>
+    </row>
+    <row r="159" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K159" s="9"/>
+    </row>
+    <row r="160" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K160" s="9"/>
+    </row>
+    <row r="161" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K161" s="9"/>
+    </row>
+    <row r="162" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K162" s="9"/>
+    </row>
+    <row r="163" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K163" s="9"/>
+    </row>
+    <row r="164" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K164" s="9"/>
+    </row>
+    <row r="165" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K165" s="9"/>
+    </row>
+    <row r="166" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K166" s="9"/>
+    </row>
+    <row r="167" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K167" s="9"/>
+    </row>
+    <row r="168" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K168" s="9"/>
+    </row>
+    <row r="169" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K169" s="9"/>
+    </row>
+    <row r="170" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K170" s="9"/>
+    </row>
+    <row r="171" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K171" s="9"/>
+    </row>
+    <row r="172" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K172" s="9"/>
+    </row>
+    <row r="173" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K173" s="9"/>
+    </row>
+    <row r="174" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K174" s="9"/>
+    </row>
+    <row r="175" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K175" s="9"/>
+    </row>
+    <row r="176" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K176" s="9"/>
+    </row>
+    <row r="177" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K177" s="9"/>
+    </row>
+    <row r="178" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K178" s="9"/>
+    </row>
+    <row r="179" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K179" s="9"/>
+    </row>
+    <row r="180" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K180" s="9"/>
+    </row>
+    <row r="181" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K181" s="9"/>
+    </row>
+    <row r="182" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K182" s="9"/>
+    </row>
+    <row r="183" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K183" s="9"/>
+    </row>
+    <row r="184" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K184" s="9"/>
+    </row>
+    <row r="185" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K185" s="9"/>
+    </row>
+    <row r="186" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K186" s="9"/>
+    </row>
+    <row r="187" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K187" s="9"/>
+    </row>
+    <row r="188" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K188" s="9"/>
+    </row>
+    <row r="189" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K189" s="9"/>
+    </row>
+    <row r="190" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K190" s="9"/>
+    </row>
+    <row r="191" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K191" s="9"/>
+    </row>
+    <row r="192" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K192" s="9"/>
+    </row>
+    <row r="193" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K193" s="9"/>
+    </row>
+    <row r="194" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K194" s="9"/>
+    </row>
+    <row r="195" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K195" s="9"/>
+    </row>
+    <row r="196" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K196" s="9"/>
+    </row>
+    <row r="197" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K197" s="9"/>
+    </row>
+    <row r="198" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K198" s="9"/>
+    </row>
+    <row r="199" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K199" s="9"/>
+    </row>
+    <row r="200" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K200" s="9"/>
+    </row>
+    <row r="201" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K201" s="9"/>
+    </row>
+    <row r="202" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K202" s="9"/>
+    </row>
+    <row r="203" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K203" s="9"/>
+    </row>
+    <row r="204" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K204" s="9"/>
+    </row>
+    <row r="205" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K205" s="9"/>
+    </row>
+    <row r="206" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K206" s="9"/>
+    </row>
+    <row r="207" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K207" s="9"/>
+    </row>
+    <row r="208" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K208" s="9"/>
+    </row>
+    <row r="209" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K209" s="9"/>
+    </row>
+    <row r="210" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K210" s="9"/>
+    </row>
+    <row r="211" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K211" s="9"/>
+    </row>
+    <row r="212" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K212" s="9"/>
+    </row>
+    <row r="213" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K213" s="9"/>
+    </row>
+    <row r="214" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K214" s="9"/>
+    </row>
+    <row r="215" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K215" s="9"/>
+    </row>
+    <row r="216" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K216" s="9"/>
+    </row>
+    <row r="217" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K217" s="9"/>
+    </row>
+    <row r="218" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K218" s="9"/>
+    </row>
+    <row r="219" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K219" s="9"/>
+    </row>
+    <row r="220" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K220" s="9"/>
+    </row>
+    <row r="221" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K221" s="9"/>
+    </row>
+    <row r="222" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K222" s="9"/>
+    </row>
+    <row r="223" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K223" s="9"/>
+    </row>
+    <row r="224" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K224" s="9"/>
+    </row>
+    <row r="225" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K225" s="9"/>
+    </row>
+    <row r="226" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K226" s="9"/>
+    </row>
+    <row r="227" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K227" s="9"/>
+    </row>
+    <row r="228" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K228" s="9"/>
+    </row>
+    <row r="229" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K229" s="9"/>
+    </row>
+    <row r="230" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K230" s="9"/>
+    </row>
+    <row r="231" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K231" s="9"/>
+    </row>
+    <row r="232" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K232" s="9"/>
+    </row>
+    <row r="233" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K233" s="9"/>
+    </row>
+    <row r="234" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K234" s="9"/>
+    </row>
+    <row r="235" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K235" s="9"/>
+    </row>
+    <row r="236" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K236" s="9"/>
+    </row>
+    <row r="237" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K237" s="9"/>
+    </row>
+    <row r="238" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K238" s="9"/>
+    </row>
+    <row r="239" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K239" s="9"/>
+    </row>
+    <row r="240" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K240" s="9"/>
+    </row>
+    <row r="241" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K241" s="9"/>
+    </row>
+    <row r="242" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K242" s="9"/>
+    </row>
+    <row r="243" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K243" s="9"/>
+    </row>
+    <row r="244" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K244" s="9"/>
+    </row>
+    <row r="245" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K245" s="9"/>
+    </row>
+    <row r="246" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K246" s="9"/>
+    </row>
+    <row r="247" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K247" s="9"/>
+    </row>
+    <row r="248" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K248" s="9"/>
+    </row>
+    <row r="249" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K249" s="9"/>
+    </row>
+    <row r="250" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K250" s="9"/>
+    </row>
+    <row r="251" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K251" s="9"/>
+    </row>
+    <row r="252" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K252" s="9"/>
+    </row>
+    <row r="253" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K253" s="9"/>
+    </row>
+    <row r="254" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K254" s="9"/>
+    </row>
+    <row r="255" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K255" s="9"/>
+    </row>
+    <row r="256" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K256" s="9"/>
+    </row>
+    <row r="257" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K257" s="9"/>
+    </row>
+    <row r="258" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K258" s="9"/>
+    </row>
+    <row r="259" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K259" s="9"/>
+    </row>
+    <row r="260" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K260" s="9"/>
+    </row>
+    <row r="261" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K261" s="9"/>
+    </row>
+    <row r="262" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K262" s="9"/>
+    </row>
+    <row r="263" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K263" s="9"/>
+    </row>
+    <row r="264" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K264" s="9"/>
+    </row>
+    <row r="265" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K265" s="9"/>
+    </row>
+    <row r="266" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K266" s="9"/>
+    </row>
+    <row r="267" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K267" s="9"/>
+    </row>
+    <row r="268" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K268" s="9"/>
+    </row>
+    <row r="269" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K269" s="9"/>
+    </row>
+    <row r="270" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K270" s="9"/>
+    </row>
+    <row r="271" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K271" s="9"/>
+    </row>
+    <row r="272" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K272" s="9"/>
+    </row>
+    <row r="273" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K273" s="9"/>
+    </row>
+    <row r="274" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K274" s="9"/>
+    </row>
+    <row r="275" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K275" s="9"/>
+    </row>
+    <row r="276" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K276" s="9"/>
+    </row>
+    <row r="277" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K277" s="9"/>
+    </row>
+    <row r="278" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K278" s="9"/>
+    </row>
+    <row r="279" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K279" s="9"/>
+    </row>
+    <row r="280" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K280" s="9"/>
+    </row>
+    <row r="281" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K281" s="9"/>
+    </row>
+    <row r="282" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K282" s="9"/>
+    </row>
+    <row r="283" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K283" s="9"/>
+    </row>
+    <row r="284" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K284" s="9"/>
+    </row>
+    <row r="285" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K285" s="9"/>
+    </row>
+    <row r="286" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K286" s="9"/>
+    </row>
+    <row r="287" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K287" s="9"/>
+    </row>
+    <row r="288" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K288" s="9"/>
+    </row>
+    <row r="289" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K289" s="9"/>
+    </row>
+    <row r="290" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K290" s="9"/>
+    </row>
+    <row r="291" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K291" s="9"/>
+    </row>
+    <row r="292" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K292" s="9"/>
+    </row>
+    <row r="293" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K293" s="9"/>
+    </row>
+    <row r="294" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K294" s="9"/>
+    </row>
+    <row r="295" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K295" s="9"/>
+    </row>
+    <row r="296" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K296" s="9"/>
+    </row>
+    <row r="297" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K297" s="9"/>
+    </row>
+    <row r="298" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K298" s="9"/>
+    </row>
+    <row r="299" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K299" s="9"/>
+    </row>
+    <row r="300" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K300" s="9"/>
+    </row>
+    <row r="301" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K301" s="9"/>
+    </row>
+    <row r="302" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K302" s="9"/>
+    </row>
+    <row r="303" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K303" s="9"/>
+    </row>
+    <row r="304" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K304" s="9"/>
+    </row>
+    <row r="305" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K305" s="9"/>
+    </row>
+    <row r="306" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K306" s="9"/>
+    </row>
+    <row r="307" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K307" s="9"/>
+    </row>
+    <row r="308" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K308" s="9"/>
+    </row>
+    <row r="309" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K309" s="9"/>
+    </row>
+    <row r="310" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K310" s="9"/>
+    </row>
+    <row r="311" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K311" s="9"/>
+    </row>
+    <row r="312" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K312" s="9"/>
+    </row>
+    <row r="313" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K313" s="9"/>
+    </row>
+    <row r="314" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K314" s="9"/>
+    </row>
+    <row r="315" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K315" s="9"/>
+    </row>
+    <row r="316" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K316" s="9"/>
+    </row>
+    <row r="317" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K317" s="9"/>
+    </row>
+    <row r="318" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K318" s="9"/>
+    </row>
+    <row r="319" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K319" s="9"/>
+    </row>
+    <row r="320" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K320" s="9"/>
+    </row>
+    <row r="321" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K321" s="9"/>
+    </row>
+    <row r="322" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K322" s="9"/>
+    </row>
+    <row r="323" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K323" s="9"/>
+    </row>
+    <row r="324" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K324" s="9"/>
+    </row>
+    <row r="325" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K325" s="9"/>
+    </row>
+    <row r="326" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K326" s="9"/>
+    </row>
+    <row r="327" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K327" s="9"/>
+    </row>
+    <row r="328" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K328" s="9"/>
+    </row>
+    <row r="329" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K329" s="9"/>
+    </row>
+    <row r="330" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K330" s="9"/>
+    </row>
+    <row r="331" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K331" s="9"/>
+    </row>
+    <row r="332" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K332" s="9"/>
+    </row>
+    <row r="333" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K333" s="9"/>
+    </row>
+    <row r="334" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K334" s="9"/>
+    </row>
+    <row r="335" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K335" s="9"/>
+    </row>
+    <row r="336" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K336" s="9"/>
+    </row>
+    <row r="337" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K337" s="9"/>
+    </row>
+    <row r="338" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K338" s="9"/>
+    </row>
+    <row r="339" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K339" s="9"/>
+    </row>
+    <row r="340" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K340" s="9"/>
+    </row>
+    <row r="341" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K341" s="9"/>
+    </row>
+    <row r="342" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K342" s="9"/>
+    </row>
+    <row r="343" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K343" s="9"/>
+    </row>
+    <row r="344" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K344" s="9"/>
+    </row>
+    <row r="345" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K345" s="9"/>
+    </row>
+    <row r="346" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K346" s="9"/>
+    </row>
+    <row r="347" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K347" s="9"/>
+    </row>
+    <row r="348" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K348" s="9"/>
+    </row>
+    <row r="349" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K349" s="9"/>
+    </row>
+    <row r="350" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K350" s="9"/>
+    </row>
+    <row r="351" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K351" s="9"/>
+    </row>
+    <row r="352" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K352" s="9"/>
+    </row>
+    <row r="353" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K353" s="9"/>
+    </row>
+    <row r="354" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K354" s="9"/>
+    </row>
+    <row r="355" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K355" s="9"/>
+    </row>
+    <row r="356" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K356" s="9"/>
+    </row>
+    <row r="357" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K357" s="9"/>
+    </row>
+    <row r="358" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K358" s="9"/>
+    </row>
+    <row r="359" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K359" s="9"/>
+    </row>
+    <row r="360" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K360" s="9"/>
+    </row>
+    <row r="361" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K361" s="9"/>
+    </row>
+    <row r="362" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K362" s="9"/>
+    </row>
+    <row r="363" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K363" s="9"/>
+    </row>
+    <row r="364" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K364" s="9"/>
+    </row>
+    <row r="365" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K365" s="9"/>
+    </row>
+    <row r="366" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K366" s="9"/>
+    </row>
+    <row r="367" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K367" s="9"/>
+    </row>
+    <row r="368" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K368" s="9"/>
+    </row>
+    <row r="369" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K369" s="9"/>
+    </row>
+    <row r="370" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K370" s="9"/>
+    </row>
+    <row r="371" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K371" s="9"/>
+    </row>
+    <row r="372" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K372" s="9"/>
+    </row>
+    <row r="373" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K373" s="9"/>
+    </row>
+    <row r="374" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K374" s="9"/>
+    </row>
+    <row r="375" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K375" s="9"/>
+    </row>
+    <row r="376" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K376" s="9"/>
+    </row>
+    <row r="377" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K377" s="9"/>
+    </row>
+    <row r="378" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K378" s="9"/>
+    </row>
+    <row r="379" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K379" s="9"/>
+    </row>
+    <row r="380" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K380" s="9"/>
+    </row>
+    <row r="381" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K381" s="9"/>
+    </row>
+    <row r="382" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K382" s="9"/>
+    </row>
+    <row r="383" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K383" s="9"/>
+    </row>
+    <row r="384" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K384" s="9"/>
+    </row>
+    <row r="385" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K385" s="9"/>
+    </row>
+    <row r="386" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K386" s="9"/>
+    </row>
+    <row r="387" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K387" s="9"/>
+    </row>
+    <row r="388" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K388" s="9"/>
+    </row>
+    <row r="389" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K389" s="9"/>
+    </row>
+    <row r="390" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K390" s="9"/>
+    </row>
+    <row r="391" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K391" s="9"/>
+    </row>
+    <row r="392" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K392" s="9"/>
+    </row>
+    <row r="393" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K393" s="9"/>
+    </row>
+    <row r="394" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K394" s="9"/>
+    </row>
+    <row r="395" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K395" s="9"/>
+    </row>
+    <row r="396" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K396" s="9"/>
+    </row>
+    <row r="397" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K397" s="9"/>
+    </row>
+    <row r="398" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K398" s="9"/>
+    </row>
+    <row r="399" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K399" s="9"/>
+    </row>
+    <row r="400" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K400" s="9"/>
+    </row>
+    <row r="401" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K401" s="9"/>
+    </row>
+    <row r="402" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K402" s="9"/>
+    </row>
+    <row r="403" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K403" s="9"/>
+    </row>
+    <row r="404" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K404" s="9"/>
+    </row>
+    <row r="405" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K405" s="9"/>
+    </row>
+    <row r="406" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K406" s="9"/>
+    </row>
+    <row r="407" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K407" s="9"/>
+    </row>
+    <row r="408" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K408" s="9"/>
+    </row>
+    <row r="409" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K409" s="9"/>
+    </row>
+    <row r="410" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K410" s="9"/>
+    </row>
+    <row r="411" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K411" s="9"/>
+    </row>
+    <row r="412" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K412" s="9"/>
+    </row>
+    <row r="413" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K413" s="9"/>
+    </row>
+    <row r="414" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K414" s="9"/>
+    </row>
+    <row r="415" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K415" s="9"/>
+    </row>
+    <row r="416" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K416" s="9"/>
+    </row>
+    <row r="417" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K417" s="9"/>
+    </row>
+    <row r="418" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K418" s="9"/>
+    </row>
+    <row r="419" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K419" s="9"/>
+    </row>
+    <row r="420" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K420" s="9"/>
+    </row>
+    <row r="421" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K421" s="9"/>
+    </row>
+    <row r="422" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K422" s="9"/>
+    </row>
+    <row r="423" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K423" s="9"/>
+    </row>
+    <row r="424" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K424" s="9"/>
+    </row>
+    <row r="425" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K425" s="9"/>
+    </row>
+    <row r="426" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K426" s="9"/>
+    </row>
+    <row r="427" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K427" s="9"/>
+    </row>
+    <row r="428" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K428" s="9"/>
+    </row>
+    <row r="429" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K429" s="9"/>
+    </row>
+    <row r="430" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K430" s="9"/>
+    </row>
+    <row r="431" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K431" s="9"/>
+    </row>
+    <row r="432" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K432" s="9"/>
+    </row>
+    <row r="433" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K433" s="9"/>
+    </row>
+    <row r="434" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K434" s="9"/>
+    </row>
+    <row r="435" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K435" s="9"/>
+    </row>
+    <row r="436" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K436" s="9"/>
+    </row>
+    <row r="437" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K437" s="9"/>
+    </row>
+    <row r="438" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K438" s="9"/>
+    </row>
+    <row r="439" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K439" s="9"/>
+    </row>
+    <row r="440" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K440" s="9"/>
+    </row>
+    <row r="441" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K441" s="9"/>
+    </row>
+    <row r="442" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K442" s="9"/>
+    </row>
+    <row r="443" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K443" s="9"/>
+    </row>
+    <row r="444" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K444" s="9"/>
+    </row>
+    <row r="445" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K445" s="9"/>
+    </row>
+    <row r="446" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K446" s="9"/>
+    </row>
+    <row r="447" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K447" s="9"/>
+    </row>
+    <row r="448" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K448" s="9"/>
+    </row>
+    <row r="449" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K449" s="9"/>
+    </row>
+    <row r="450" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K450" s="9"/>
+    </row>
+    <row r="451" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K451" s="9"/>
+    </row>
+    <row r="452" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K452" s="9"/>
+    </row>
+    <row r="453" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K453" s="9"/>
+    </row>
+    <row r="454" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K454" s="9"/>
+    </row>
+    <row r="455" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K455" s="9"/>
+    </row>
+    <row r="456" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K456" s="9"/>
+    </row>
+    <row r="457" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K457" s="9"/>
+    </row>
+    <row r="458" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K458" s="9"/>
+    </row>
+    <row r="459" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K459" s="9"/>
+    </row>
+    <row r="460" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K460" s="9"/>
+    </row>
+    <row r="461" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K461" s="9"/>
+    </row>
+    <row r="462" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K462" s="9"/>
+    </row>
+    <row r="463" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K463" s="9"/>
+    </row>
+    <row r="464" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K464" s="9"/>
+    </row>
+    <row r="465" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K465" s="9"/>
+    </row>
+    <row r="466" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K466" s="9"/>
+    </row>
+    <row r="467" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K467" s="9"/>
+    </row>
+    <row r="468" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K468" s="9"/>
+    </row>
+    <row r="469" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K469" s="9"/>
+    </row>
+    <row r="470" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K470" s="9"/>
+    </row>
+    <row r="471" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K471" s="9"/>
+    </row>
+    <row r="472" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K472" s="9"/>
+    </row>
+    <row r="473" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K473" s="9"/>
+    </row>
+    <row r="474" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K474" s="9"/>
+    </row>
+    <row r="475" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K475" s="9"/>
+    </row>
+    <row r="476" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K476" s="9"/>
+    </row>
+    <row r="477" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K477" s="9"/>
+    </row>
+    <row r="478" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K478" s="9"/>
+    </row>
+    <row r="479" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K479" s="9"/>
+    </row>
+    <row r="480" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K480" s="9"/>
+    </row>
+    <row r="481" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K481" s="9"/>
+    </row>
+    <row r="482" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K482" s="9"/>
+    </row>
+    <row r="483" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K483" s="9"/>
+    </row>
+    <row r="484" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K484" s="9"/>
+    </row>
+    <row r="485" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K485" s="9"/>
+    </row>
+    <row r="486" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K486" s="9"/>
+    </row>
+    <row r="487" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K487" s="9"/>
+    </row>
+    <row r="488" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K488" s="9"/>
+    </row>
+    <row r="489" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K489" s="9"/>
+    </row>
+    <row r="490" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K490" s="9"/>
+    </row>
+    <row r="491" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K491" s="9"/>
+    </row>
+    <row r="492" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K492" s="9"/>
+    </row>
+    <row r="493" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K493" s="9"/>
+    </row>
+    <row r="494" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K494" s="9"/>
+    </row>
+    <row r="495" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K495" s="9"/>
+    </row>
+    <row r="496" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K496" s="9"/>
+    </row>
+    <row r="497" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K497" s="9"/>
+    </row>
+    <row r="498" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K498" s="9"/>
+    </row>
+    <row r="499" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K499" s="9"/>
+    </row>
+    <row r="500" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K500" s="9"/>
+    </row>
   </sheetData>
+  <dataValidations count="12">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Latitude" prompt="Must be a decimal number between 45 and 75" sqref="B2:B500" xr:uid="{207D7F67-EC47-FB47-BAFE-4BD8B58A262D}">
+      <formula1>45</formula1>
+      <formula2>75</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Longitude" prompt="Must be a decimal number between -180 and -125" sqref="C2:C500" xr:uid="{24C9BEDC-E9BC-D944-9DB4-A8EDD90390D3}">
+      <formula1>-180</formula1>
+      <formula2>-125</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Timezone" prompt="Select from dropdown" sqref="D2:D500" xr:uid="{36E83BB2-3E2C-C443-8A51-8D2F191090CA}">
+      <formula1>timezone</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Waterbody Type" prompt="Select from dropdown" sqref="G2:G500" xr:uid="{3746069C-5BC0-7E4B-92BE-B64E8EB01D65}">
+      <formula1>waterbody_type</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Placement" prompt="Select from dropdown" sqref="H2:H500" xr:uid="{E6CF6058-EE8A-7043-8198-AB5E9D922922}">
+      <formula1>placement</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Well-mixed" prompt="Must be TRUE or FALSE" sqref="I2:I500" xr:uid="{48E8EEBE-DCC2-AB48-8746-D00184B3C386}">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Private" prompt="Must be TRUE or FALSE. If blank, will default to FALSE." sqref="L2:L500" xr:uid="{C85C6A16-F1AB-E54B-9545-F03B1B195F8A}">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Active" prompt="Must be TRUE or FALSE" sqref="J2:J500" xr:uid="{FD53AF57-14BA-5344-B245-D450197802DE}">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Code" prompt="Required, must be 50 characters or less" sqref="A2:A500" xr:uid="{CA050B31-A189-984E-BB99-67A09D22D3A9}">
+      <formula1>1</formula1>
+      <formula2>50</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Description" prompt="Must be 250 characters or less" sqref="E2:E500" xr:uid="{DFB84F74-8BFC-CB43-8D6B-0B37554A6BA5}">
+      <formula1>1</formula1>
+      <formula2>50</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Waterbody Name" prompt="Must be 50 characters or less" sqref="F2:F500" xr:uid="{EC7BD226-B03C-4941-8A9C-E9C5AA650372}">
+      <formula1>1</formula1>
+      <formula2>50</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Reference URL" prompt="URL to the data source" sqref="K2:K500" xr:uid="{18989FB2-8035-4643-8F26-DE21F2975743}"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD5184F-52B3-EF46-AA5F-BE0833D74299}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="40" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="7"/>
+    <col min="1" max="1" width="47.33203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="14" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>38</v>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="40" t="s">
+        <v>80</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>20</v>
       </c>
       <c r="J1" s="10" t="s">
         <v>21</v>
       </c>
       <c r="K1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="44" x14ac:dyDescent="0.2">
+      <c r="A2" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="7">
+        <v>61.5</v>
+      </c>
+      <c r="D2" s="7">
+        <v>-152.38200000000001</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="7"/>
+    </row>
+    <row r="3" spans="1:13" ht="66" x14ac:dyDescent="0.2">
+      <c r="A3" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7">
+        <v>61.5</v>
+      </c>
+      <c r="D3" s="7">
+        <v>-152.38200000000001</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="88" x14ac:dyDescent="0.2">
+      <c r="A4" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7">
+        <v>62.23</v>
+      </c>
+      <c r="D4" s="7">
+        <v>-151.23099999999999</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="44" x14ac:dyDescent="0.2">
+      <c r="A5" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="7">
-        <v>61.5</v>
-      </c>
-      <c r="C2" s="7">
-        <v>-152.38200000000001</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="C5" s="7">
+        <v>63.98</v>
+      </c>
+      <c r="D5" s="7">
+        <v>-153.42099999999999</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" s="7" t="b">
+      <c r="F5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="7">
-        <v>62.23</v>
-      </c>
-      <c r="C3" s="7">
-        <v>-151.23099999999999</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="K5" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="7">
-        <v>63.98</v>
-      </c>
-      <c r="C4" s="7">
-        <v>-153.42099999999999</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7" t="b">
+      <c r="L5" s="7"/>
+      <c r="M5" s="7" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{31D4F587-408C-5540-A8E2-FBA868C42EEB}"/>
+    <hyperlink ref="L3" r:id="rId1" xr:uid="{31D4F587-408C-5540-A8E2-FBA868C42EEB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/app/public/static/aktemp-stations-template.xlsx
+++ b/app/public/static/aktemp-stations-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeff/git/aktemp/app/public/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182EF91D-7CF0-ED45-BDC3-D2ED6E0AD17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8102F09-6A7C-BE42-BD21-64D6DEC0CBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1060,9 +1060,6 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1086,6 +1083,9 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1610,12 +1610,12 @@
       <c r="A7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
@@ -1721,7 +1721,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="40" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="23" t="s">
         <v>13</v>
@@ -1764,7 +1764,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="23"/>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="38" t="s">
         <v>71</v>
       </c>
       <c r="E21" s="24" t="s">
@@ -1884,64 +1884,64 @@
       <c r="B33" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D33" s="36" t="s">
+      <c r="D33" s="35" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="32"/>
-      <c r="C34" s="34" t="s">
+      <c r="B34" s="31"/>
+      <c r="C34" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D34" s="37" t="s">
+      <c r="D34" s="36" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="32"/>
-      <c r="C35" s="34" t="s">
+      <c r="B35" s="31"/>
+      <c r="C35" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="37" t="s">
+      <c r="D35" s="36" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="32"/>
-      <c r="C36" s="34" t="s">
+      <c r="B36" s="31"/>
+      <c r="C36" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="D36" s="37" t="s">
+      <c r="D36" s="36" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="32"/>
-      <c r="C37" s="34" t="s">
+      <c r="B37" s="31"/>
+      <c r="C37" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="37" t="s">
+      <c r="D37" s="36" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="32"/>
-      <c r="C38" s="34" t="s">
+      <c r="B38" s="31"/>
+      <c r="C38" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="37" t="s">
+      <c r="D38" s="36" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="15"/>
-      <c r="C39" s="35" t="s">
+      <c r="C39" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="38" t="s">
+      <c r="D39" s="37" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1958,11 +1958,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L500"/>
+  <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3510,47 +3508,1547 @@
     <row r="500" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K500" s="9"/>
     </row>
+    <row r="501" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K501" s="9"/>
+    </row>
+    <row r="502" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K502" s="9"/>
+    </row>
+    <row r="503" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K503" s="9"/>
+    </row>
+    <row r="504" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K504" s="9"/>
+    </row>
+    <row r="505" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K505" s="9"/>
+    </row>
+    <row r="506" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K506" s="9"/>
+    </row>
+    <row r="507" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K507" s="9"/>
+    </row>
+    <row r="508" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K508" s="9"/>
+    </row>
+    <row r="509" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K509" s="9"/>
+    </row>
+    <row r="510" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K510" s="9"/>
+    </row>
+    <row r="511" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K511" s="9"/>
+    </row>
+    <row r="512" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K512" s="9"/>
+    </row>
+    <row r="513" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K513" s="9"/>
+    </row>
+    <row r="514" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K514" s="9"/>
+    </row>
+    <row r="515" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K515" s="9"/>
+    </row>
+    <row r="516" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K516" s="9"/>
+    </row>
+    <row r="517" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K517" s="9"/>
+    </row>
+    <row r="518" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K518" s="9"/>
+    </row>
+    <row r="519" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K519" s="9"/>
+    </row>
+    <row r="520" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K520" s="9"/>
+    </row>
+    <row r="521" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K521" s="9"/>
+    </row>
+    <row r="522" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K522" s="9"/>
+    </row>
+    <row r="523" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K523" s="9"/>
+    </row>
+    <row r="524" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K524" s="9"/>
+    </row>
+    <row r="525" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K525" s="9"/>
+    </row>
+    <row r="526" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K526" s="9"/>
+    </row>
+    <row r="527" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K527" s="9"/>
+    </row>
+    <row r="528" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K528" s="9"/>
+    </row>
+    <row r="529" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K529" s="9"/>
+    </row>
+    <row r="530" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K530" s="9"/>
+    </row>
+    <row r="531" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K531" s="9"/>
+    </row>
+    <row r="532" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K532" s="9"/>
+    </row>
+    <row r="533" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K533" s="9"/>
+    </row>
+    <row r="534" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K534" s="9"/>
+    </row>
+    <row r="535" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K535" s="9"/>
+    </row>
+    <row r="536" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K536" s="9"/>
+    </row>
+    <row r="537" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K537" s="9"/>
+    </row>
+    <row r="538" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K538" s="9"/>
+    </row>
+    <row r="539" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K539" s="9"/>
+    </row>
+    <row r="540" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K540" s="9"/>
+    </row>
+    <row r="541" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K541" s="9"/>
+    </row>
+    <row r="542" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K542" s="9"/>
+    </row>
+    <row r="543" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K543" s="9"/>
+    </row>
+    <row r="544" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K544" s="9"/>
+    </row>
+    <row r="545" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K545" s="9"/>
+    </row>
+    <row r="546" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K546" s="9"/>
+    </row>
+    <row r="547" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K547" s="9"/>
+    </row>
+    <row r="548" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K548" s="9"/>
+    </row>
+    <row r="549" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K549" s="9"/>
+    </row>
+    <row r="550" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K550" s="9"/>
+    </row>
+    <row r="551" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K551" s="9"/>
+    </row>
+    <row r="552" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K552" s="9"/>
+    </row>
+    <row r="553" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K553" s="9"/>
+    </row>
+    <row r="554" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K554" s="9"/>
+    </row>
+    <row r="555" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K555" s="9"/>
+    </row>
+    <row r="556" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K556" s="9"/>
+    </row>
+    <row r="557" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K557" s="9"/>
+    </row>
+    <row r="558" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K558" s="9"/>
+    </row>
+    <row r="559" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K559" s="9"/>
+    </row>
+    <row r="560" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K560" s="9"/>
+    </row>
+    <row r="561" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K561" s="9"/>
+    </row>
+    <row r="562" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K562" s="9"/>
+    </row>
+    <row r="563" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K563" s="9"/>
+    </row>
+    <row r="564" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K564" s="9"/>
+    </row>
+    <row r="565" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K565" s="9"/>
+    </row>
+    <row r="566" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K566" s="9"/>
+    </row>
+    <row r="567" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K567" s="9"/>
+    </row>
+    <row r="568" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K568" s="9"/>
+    </row>
+    <row r="569" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K569" s="9"/>
+    </row>
+    <row r="570" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K570" s="9"/>
+    </row>
+    <row r="571" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K571" s="9"/>
+    </row>
+    <row r="572" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K572" s="9"/>
+    </row>
+    <row r="573" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K573" s="9"/>
+    </row>
+    <row r="574" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K574" s="9"/>
+    </row>
+    <row r="575" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K575" s="9"/>
+    </row>
+    <row r="576" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K576" s="9"/>
+    </row>
+    <row r="577" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K577" s="9"/>
+    </row>
+    <row r="578" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K578" s="9"/>
+    </row>
+    <row r="579" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K579" s="9"/>
+    </row>
+    <row r="580" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K580" s="9"/>
+    </row>
+    <row r="581" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K581" s="9"/>
+    </row>
+    <row r="582" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K582" s="9"/>
+    </row>
+    <row r="583" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K583" s="9"/>
+    </row>
+    <row r="584" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K584" s="9"/>
+    </row>
+    <row r="585" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K585" s="9"/>
+    </row>
+    <row r="586" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K586" s="9"/>
+    </row>
+    <row r="587" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K587" s="9"/>
+    </row>
+    <row r="588" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K588" s="9"/>
+    </row>
+    <row r="589" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K589" s="9"/>
+    </row>
+    <row r="590" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K590" s="9"/>
+    </row>
+    <row r="591" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K591" s="9"/>
+    </row>
+    <row r="592" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K592" s="9"/>
+    </row>
+    <row r="593" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K593" s="9"/>
+    </row>
+    <row r="594" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K594" s="9"/>
+    </row>
+    <row r="595" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K595" s="9"/>
+    </row>
+    <row r="596" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K596" s="9"/>
+    </row>
+    <row r="597" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K597" s="9"/>
+    </row>
+    <row r="598" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K598" s="9"/>
+    </row>
+    <row r="599" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K599" s="9"/>
+    </row>
+    <row r="600" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K600" s="9"/>
+    </row>
+    <row r="601" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K601" s="9"/>
+    </row>
+    <row r="602" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K602" s="9"/>
+    </row>
+    <row r="603" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K603" s="9"/>
+    </row>
+    <row r="604" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K604" s="9"/>
+    </row>
+    <row r="605" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K605" s="9"/>
+    </row>
+    <row r="606" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K606" s="9"/>
+    </row>
+    <row r="607" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K607" s="9"/>
+    </row>
+    <row r="608" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K608" s="9"/>
+    </row>
+    <row r="609" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K609" s="9"/>
+    </row>
+    <row r="610" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K610" s="9"/>
+    </row>
+    <row r="611" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K611" s="9"/>
+    </row>
+    <row r="612" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K612" s="9"/>
+    </row>
+    <row r="613" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K613" s="9"/>
+    </row>
+    <row r="614" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K614" s="9"/>
+    </row>
+    <row r="615" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K615" s="9"/>
+    </row>
+    <row r="616" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K616" s="9"/>
+    </row>
+    <row r="617" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K617" s="9"/>
+    </row>
+    <row r="618" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K618" s="9"/>
+    </row>
+    <row r="619" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K619" s="9"/>
+    </row>
+    <row r="620" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K620" s="9"/>
+    </row>
+    <row r="621" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K621" s="9"/>
+    </row>
+    <row r="622" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K622" s="9"/>
+    </row>
+    <row r="623" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K623" s="9"/>
+    </row>
+    <row r="624" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K624" s="9"/>
+    </row>
+    <row r="625" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K625" s="9"/>
+    </row>
+    <row r="626" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K626" s="9"/>
+    </row>
+    <row r="627" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K627" s="9"/>
+    </row>
+    <row r="628" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K628" s="9"/>
+    </row>
+    <row r="629" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K629" s="9"/>
+    </row>
+    <row r="630" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K630" s="9"/>
+    </row>
+    <row r="631" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K631" s="9"/>
+    </row>
+    <row r="632" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K632" s="9"/>
+    </row>
+    <row r="633" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K633" s="9"/>
+    </row>
+    <row r="634" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K634" s="9"/>
+    </row>
+    <row r="635" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K635" s="9"/>
+    </row>
+    <row r="636" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K636" s="9"/>
+    </row>
+    <row r="637" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K637" s="9"/>
+    </row>
+    <row r="638" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K638" s="9"/>
+    </row>
+    <row r="639" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K639" s="9"/>
+    </row>
+    <row r="640" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K640" s="9"/>
+    </row>
+    <row r="641" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K641" s="9"/>
+    </row>
+    <row r="642" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K642" s="9"/>
+    </row>
+    <row r="643" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K643" s="9"/>
+    </row>
+    <row r="644" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K644" s="9"/>
+    </row>
+    <row r="645" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K645" s="9"/>
+    </row>
+    <row r="646" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K646" s="9"/>
+    </row>
+    <row r="647" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K647" s="9"/>
+    </row>
+    <row r="648" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K648" s="9"/>
+    </row>
+    <row r="649" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K649" s="9"/>
+    </row>
+    <row r="650" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K650" s="9"/>
+    </row>
+    <row r="651" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K651" s="9"/>
+    </row>
+    <row r="652" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K652" s="9"/>
+    </row>
+    <row r="653" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K653" s="9"/>
+    </row>
+    <row r="654" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K654" s="9"/>
+    </row>
+    <row r="655" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K655" s="9"/>
+    </row>
+    <row r="656" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K656" s="9"/>
+    </row>
+    <row r="657" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K657" s="9"/>
+    </row>
+    <row r="658" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K658" s="9"/>
+    </row>
+    <row r="659" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K659" s="9"/>
+    </row>
+    <row r="660" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K660" s="9"/>
+    </row>
+    <row r="661" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K661" s="9"/>
+    </row>
+    <row r="662" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K662" s="9"/>
+    </row>
+    <row r="663" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K663" s="9"/>
+    </row>
+    <row r="664" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K664" s="9"/>
+    </row>
+    <row r="665" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K665" s="9"/>
+    </row>
+    <row r="666" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K666" s="9"/>
+    </row>
+    <row r="667" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K667" s="9"/>
+    </row>
+    <row r="668" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K668" s="9"/>
+    </row>
+    <row r="669" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K669" s="9"/>
+    </row>
+    <row r="670" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K670" s="9"/>
+    </row>
+    <row r="671" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K671" s="9"/>
+    </row>
+    <row r="672" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K672" s="9"/>
+    </row>
+    <row r="673" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K673" s="9"/>
+    </row>
+    <row r="674" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K674" s="9"/>
+    </row>
+    <row r="675" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K675" s="9"/>
+    </row>
+    <row r="676" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K676" s="9"/>
+    </row>
+    <row r="677" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K677" s="9"/>
+    </row>
+    <row r="678" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K678" s="9"/>
+    </row>
+    <row r="679" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K679" s="9"/>
+    </row>
+    <row r="680" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K680" s="9"/>
+    </row>
+    <row r="681" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K681" s="9"/>
+    </row>
+    <row r="682" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K682" s="9"/>
+    </row>
+    <row r="683" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K683" s="9"/>
+    </row>
+    <row r="684" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K684" s="9"/>
+    </row>
+    <row r="685" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K685" s="9"/>
+    </row>
+    <row r="686" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K686" s="9"/>
+    </row>
+    <row r="687" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K687" s="9"/>
+    </row>
+    <row r="688" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K688" s="9"/>
+    </row>
+    <row r="689" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K689" s="9"/>
+    </row>
+    <row r="690" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K690" s="9"/>
+    </row>
+    <row r="691" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K691" s="9"/>
+    </row>
+    <row r="692" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K692" s="9"/>
+    </row>
+    <row r="693" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K693" s="9"/>
+    </row>
+    <row r="694" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K694" s="9"/>
+    </row>
+    <row r="695" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K695" s="9"/>
+    </row>
+    <row r="696" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K696" s="9"/>
+    </row>
+    <row r="697" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K697" s="9"/>
+    </row>
+    <row r="698" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K698" s="9"/>
+    </row>
+    <row r="699" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K699" s="9"/>
+    </row>
+    <row r="700" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K700" s="9"/>
+    </row>
+    <row r="701" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K701" s="9"/>
+    </row>
+    <row r="702" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K702" s="9"/>
+    </row>
+    <row r="703" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K703" s="9"/>
+    </row>
+    <row r="704" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K704" s="9"/>
+    </row>
+    <row r="705" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K705" s="9"/>
+    </row>
+    <row r="706" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K706" s="9"/>
+    </row>
+    <row r="707" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K707" s="9"/>
+    </row>
+    <row r="708" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K708" s="9"/>
+    </row>
+    <row r="709" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K709" s="9"/>
+    </row>
+    <row r="710" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K710" s="9"/>
+    </row>
+    <row r="711" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K711" s="9"/>
+    </row>
+    <row r="712" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K712" s="9"/>
+    </row>
+    <row r="713" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K713" s="9"/>
+    </row>
+    <row r="714" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K714" s="9"/>
+    </row>
+    <row r="715" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K715" s="9"/>
+    </row>
+    <row r="716" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K716" s="9"/>
+    </row>
+    <row r="717" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K717" s="9"/>
+    </row>
+    <row r="718" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K718" s="9"/>
+    </row>
+    <row r="719" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K719" s="9"/>
+    </row>
+    <row r="720" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K720" s="9"/>
+    </row>
+    <row r="721" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K721" s="9"/>
+    </row>
+    <row r="722" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K722" s="9"/>
+    </row>
+    <row r="723" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K723" s="9"/>
+    </row>
+    <row r="724" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K724" s="9"/>
+    </row>
+    <row r="725" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K725" s="9"/>
+    </row>
+    <row r="726" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K726" s="9"/>
+    </row>
+    <row r="727" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K727" s="9"/>
+    </row>
+    <row r="728" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K728" s="9"/>
+    </row>
+    <row r="729" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K729" s="9"/>
+    </row>
+    <row r="730" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K730" s="9"/>
+    </row>
+    <row r="731" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K731" s="9"/>
+    </row>
+    <row r="732" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K732" s="9"/>
+    </row>
+    <row r="733" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K733" s="9"/>
+    </row>
+    <row r="734" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K734" s="9"/>
+    </row>
+    <row r="735" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K735" s="9"/>
+    </row>
+    <row r="736" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K736" s="9"/>
+    </row>
+    <row r="737" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K737" s="9"/>
+    </row>
+    <row r="738" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K738" s="9"/>
+    </row>
+    <row r="739" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K739" s="9"/>
+    </row>
+    <row r="740" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K740" s="9"/>
+    </row>
+    <row r="741" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K741" s="9"/>
+    </row>
+    <row r="742" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K742" s="9"/>
+    </row>
+    <row r="743" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K743" s="9"/>
+    </row>
+    <row r="744" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K744" s="9"/>
+    </row>
+    <row r="745" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K745" s="9"/>
+    </row>
+    <row r="746" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K746" s="9"/>
+    </row>
+    <row r="747" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K747" s="9"/>
+    </row>
+    <row r="748" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K748" s="9"/>
+    </row>
+    <row r="749" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K749" s="9"/>
+    </row>
+    <row r="750" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K750" s="9"/>
+    </row>
+    <row r="751" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K751" s="9"/>
+    </row>
+    <row r="752" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K752" s="9"/>
+    </row>
+    <row r="753" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K753" s="9"/>
+    </row>
+    <row r="754" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K754" s="9"/>
+    </row>
+    <row r="755" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K755" s="9"/>
+    </row>
+    <row r="756" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K756" s="9"/>
+    </row>
+    <row r="757" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K757" s="9"/>
+    </row>
+    <row r="758" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K758" s="9"/>
+    </row>
+    <row r="759" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K759" s="9"/>
+    </row>
+    <row r="760" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K760" s="9"/>
+    </row>
+    <row r="761" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K761" s="9"/>
+    </row>
+    <row r="762" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K762" s="9"/>
+    </row>
+    <row r="763" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K763" s="9"/>
+    </row>
+    <row r="764" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K764" s="9"/>
+    </row>
+    <row r="765" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K765" s="9"/>
+    </row>
+    <row r="766" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K766" s="9"/>
+    </row>
+    <row r="767" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K767" s="9"/>
+    </row>
+    <row r="768" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K768" s="9"/>
+    </row>
+    <row r="769" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K769" s="9"/>
+    </row>
+    <row r="770" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K770" s="9"/>
+    </row>
+    <row r="771" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K771" s="9"/>
+    </row>
+    <row r="772" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K772" s="9"/>
+    </row>
+    <row r="773" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K773" s="9"/>
+    </row>
+    <row r="774" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K774" s="9"/>
+    </row>
+    <row r="775" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K775" s="9"/>
+    </row>
+    <row r="776" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K776" s="9"/>
+    </row>
+    <row r="777" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K777" s="9"/>
+    </row>
+    <row r="778" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K778" s="9"/>
+    </row>
+    <row r="779" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K779" s="9"/>
+    </row>
+    <row r="780" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K780" s="9"/>
+    </row>
+    <row r="781" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K781" s="9"/>
+    </row>
+    <row r="782" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K782" s="9"/>
+    </row>
+    <row r="783" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K783" s="9"/>
+    </row>
+    <row r="784" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K784" s="9"/>
+    </row>
+    <row r="785" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K785" s="9"/>
+    </row>
+    <row r="786" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K786" s="9"/>
+    </row>
+    <row r="787" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K787" s="9"/>
+    </row>
+    <row r="788" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K788" s="9"/>
+    </row>
+    <row r="789" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K789" s="9"/>
+    </row>
+    <row r="790" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K790" s="9"/>
+    </row>
+    <row r="791" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K791" s="9"/>
+    </row>
+    <row r="792" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K792" s="9"/>
+    </row>
+    <row r="793" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K793" s="9"/>
+    </row>
+    <row r="794" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K794" s="9"/>
+    </row>
+    <row r="795" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K795" s="9"/>
+    </row>
+    <row r="796" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K796" s="9"/>
+    </row>
+    <row r="797" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K797" s="9"/>
+    </row>
+    <row r="798" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K798" s="9"/>
+    </row>
+    <row r="799" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K799" s="9"/>
+    </row>
+    <row r="800" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K800" s="9"/>
+    </row>
+    <row r="801" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K801" s="9"/>
+    </row>
+    <row r="802" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K802" s="9"/>
+    </row>
+    <row r="803" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K803" s="9"/>
+    </row>
+    <row r="804" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K804" s="9"/>
+    </row>
+    <row r="805" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K805" s="9"/>
+    </row>
+    <row r="806" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K806" s="9"/>
+    </row>
+    <row r="807" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K807" s="9"/>
+    </row>
+    <row r="808" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K808" s="9"/>
+    </row>
+    <row r="809" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K809" s="9"/>
+    </row>
+    <row r="810" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K810" s="9"/>
+    </row>
+    <row r="811" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K811" s="9"/>
+    </row>
+    <row r="812" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K812" s="9"/>
+    </row>
+    <row r="813" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K813" s="9"/>
+    </row>
+    <row r="814" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K814" s="9"/>
+    </row>
+    <row r="815" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K815" s="9"/>
+    </row>
+    <row r="816" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K816" s="9"/>
+    </row>
+    <row r="817" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K817" s="9"/>
+    </row>
+    <row r="818" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K818" s="9"/>
+    </row>
+    <row r="819" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K819" s="9"/>
+    </row>
+    <row r="820" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K820" s="9"/>
+    </row>
+    <row r="821" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K821" s="9"/>
+    </row>
+    <row r="822" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K822" s="9"/>
+    </row>
+    <row r="823" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K823" s="9"/>
+    </row>
+    <row r="824" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K824" s="9"/>
+    </row>
+    <row r="825" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K825" s="9"/>
+    </row>
+    <row r="826" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K826" s="9"/>
+    </row>
+    <row r="827" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K827" s="9"/>
+    </row>
+    <row r="828" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K828" s="9"/>
+    </row>
+    <row r="829" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K829" s="9"/>
+    </row>
+    <row r="830" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K830" s="9"/>
+    </row>
+    <row r="831" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K831" s="9"/>
+    </row>
+    <row r="832" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K832" s="9"/>
+    </row>
+    <row r="833" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K833" s="9"/>
+    </row>
+    <row r="834" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K834" s="9"/>
+    </row>
+    <row r="835" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K835" s="9"/>
+    </row>
+    <row r="836" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K836" s="9"/>
+    </row>
+    <row r="837" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K837" s="9"/>
+    </row>
+    <row r="838" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K838" s="9"/>
+    </row>
+    <row r="839" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K839" s="9"/>
+    </row>
+    <row r="840" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K840" s="9"/>
+    </row>
+    <row r="841" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K841" s="9"/>
+    </row>
+    <row r="842" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K842" s="9"/>
+    </row>
+    <row r="843" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K843" s="9"/>
+    </row>
+    <row r="844" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K844" s="9"/>
+    </row>
+    <row r="845" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K845" s="9"/>
+    </row>
+    <row r="846" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K846" s="9"/>
+    </row>
+    <row r="847" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K847" s="9"/>
+    </row>
+    <row r="848" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K848" s="9"/>
+    </row>
+    <row r="849" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K849" s="9"/>
+    </row>
+    <row r="850" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K850" s="9"/>
+    </row>
+    <row r="851" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K851" s="9"/>
+    </row>
+    <row r="852" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K852" s="9"/>
+    </row>
+    <row r="853" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K853" s="9"/>
+    </row>
+    <row r="854" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K854" s="9"/>
+    </row>
+    <row r="855" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K855" s="9"/>
+    </row>
+    <row r="856" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K856" s="9"/>
+    </row>
+    <row r="857" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K857" s="9"/>
+    </row>
+    <row r="858" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K858" s="9"/>
+    </row>
+    <row r="859" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K859" s="9"/>
+    </row>
+    <row r="860" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K860" s="9"/>
+    </row>
+    <row r="861" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K861" s="9"/>
+    </row>
+    <row r="862" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K862" s="9"/>
+    </row>
+    <row r="863" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K863" s="9"/>
+    </row>
+    <row r="864" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K864" s="9"/>
+    </row>
+    <row r="865" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K865" s="9"/>
+    </row>
+    <row r="866" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K866" s="9"/>
+    </row>
+    <row r="867" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K867" s="9"/>
+    </row>
+    <row r="868" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K868" s="9"/>
+    </row>
+    <row r="869" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K869" s="9"/>
+    </row>
+    <row r="870" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K870" s="9"/>
+    </row>
+    <row r="871" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K871" s="9"/>
+    </row>
+    <row r="872" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K872" s="9"/>
+    </row>
+    <row r="873" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K873" s="9"/>
+    </row>
+    <row r="874" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K874" s="9"/>
+    </row>
+    <row r="875" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K875" s="9"/>
+    </row>
+    <row r="876" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K876" s="9"/>
+    </row>
+    <row r="877" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K877" s="9"/>
+    </row>
+    <row r="878" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K878" s="9"/>
+    </row>
+    <row r="879" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K879" s="9"/>
+    </row>
+    <row r="880" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K880" s="9"/>
+    </row>
+    <row r="881" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K881" s="9"/>
+    </row>
+    <row r="882" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K882" s="9"/>
+    </row>
+    <row r="883" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K883" s="9"/>
+    </row>
+    <row r="884" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K884" s="9"/>
+    </row>
+    <row r="885" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K885" s="9"/>
+    </row>
+    <row r="886" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K886" s="9"/>
+    </row>
+    <row r="887" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K887" s="9"/>
+    </row>
+    <row r="888" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K888" s="9"/>
+    </row>
+    <row r="889" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K889" s="9"/>
+    </row>
+    <row r="890" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K890" s="9"/>
+    </row>
+    <row r="891" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K891" s="9"/>
+    </row>
+    <row r="892" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K892" s="9"/>
+    </row>
+    <row r="893" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K893" s="9"/>
+    </row>
+    <row r="894" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K894" s="9"/>
+    </row>
+    <row r="895" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K895" s="9"/>
+    </row>
+    <row r="896" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K896" s="9"/>
+    </row>
+    <row r="897" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K897" s="9"/>
+    </row>
+    <row r="898" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K898" s="9"/>
+    </row>
+    <row r="899" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K899" s="9"/>
+    </row>
+    <row r="900" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K900" s="9"/>
+    </row>
+    <row r="901" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K901" s="9"/>
+    </row>
+    <row r="902" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K902" s="9"/>
+    </row>
+    <row r="903" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K903" s="9"/>
+    </row>
+    <row r="904" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K904" s="9"/>
+    </row>
+    <row r="905" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K905" s="9"/>
+    </row>
+    <row r="906" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K906" s="9"/>
+    </row>
+    <row r="907" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K907" s="9"/>
+    </row>
+    <row r="908" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K908" s="9"/>
+    </row>
+    <row r="909" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K909" s="9"/>
+    </row>
+    <row r="910" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K910" s="9"/>
+    </row>
+    <row r="911" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K911" s="9"/>
+    </row>
+    <row r="912" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K912" s="9"/>
+    </row>
+    <row r="913" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K913" s="9"/>
+    </row>
+    <row r="914" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K914" s="9"/>
+    </row>
+    <row r="915" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K915" s="9"/>
+    </row>
+    <row r="916" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K916" s="9"/>
+    </row>
+    <row r="917" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K917" s="9"/>
+    </row>
+    <row r="918" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K918" s="9"/>
+    </row>
+    <row r="919" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K919" s="9"/>
+    </row>
+    <row r="920" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K920" s="9"/>
+    </row>
+    <row r="921" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K921" s="9"/>
+    </row>
+    <row r="922" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K922" s="9"/>
+    </row>
+    <row r="923" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K923" s="9"/>
+    </row>
+    <row r="924" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K924" s="9"/>
+    </row>
+    <row r="925" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K925" s="9"/>
+    </row>
+    <row r="926" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K926" s="9"/>
+    </row>
+    <row r="927" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K927" s="9"/>
+    </row>
+    <row r="928" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K928" s="9"/>
+    </row>
+    <row r="929" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K929" s="9"/>
+    </row>
+    <row r="930" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K930" s="9"/>
+    </row>
+    <row r="931" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K931" s="9"/>
+    </row>
+    <row r="932" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K932" s="9"/>
+    </row>
+    <row r="933" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K933" s="9"/>
+    </row>
+    <row r="934" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K934" s="9"/>
+    </row>
+    <row r="935" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K935" s="9"/>
+    </row>
+    <row r="936" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K936" s="9"/>
+    </row>
+    <row r="937" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K937" s="9"/>
+    </row>
+    <row r="938" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K938" s="9"/>
+    </row>
+    <row r="939" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K939" s="9"/>
+    </row>
+    <row r="940" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K940" s="9"/>
+    </row>
+    <row r="941" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K941" s="9"/>
+    </row>
+    <row r="942" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K942" s="9"/>
+    </row>
+    <row r="943" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K943" s="9"/>
+    </row>
+    <row r="944" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K944" s="9"/>
+    </row>
+    <row r="945" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K945" s="9"/>
+    </row>
+    <row r="946" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K946" s="9"/>
+    </row>
+    <row r="947" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K947" s="9"/>
+    </row>
+    <row r="948" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K948" s="9"/>
+    </row>
+    <row r="949" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K949" s="9"/>
+    </row>
+    <row r="950" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K950" s="9"/>
+    </row>
+    <row r="951" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K951" s="9"/>
+    </row>
+    <row r="952" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K952" s="9"/>
+    </row>
+    <row r="953" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K953" s="9"/>
+    </row>
+    <row r="954" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K954" s="9"/>
+    </row>
+    <row r="955" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K955" s="9"/>
+    </row>
+    <row r="956" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K956" s="9"/>
+    </row>
+    <row r="957" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K957" s="9"/>
+    </row>
+    <row r="958" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K958" s="9"/>
+    </row>
+    <row r="959" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K959" s="9"/>
+    </row>
+    <row r="960" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K960" s="9"/>
+    </row>
+    <row r="961" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K961" s="9"/>
+    </row>
+    <row r="962" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K962" s="9"/>
+    </row>
+    <row r="963" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K963" s="9"/>
+    </row>
+    <row r="964" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K964" s="9"/>
+    </row>
+    <row r="965" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K965" s="9"/>
+    </row>
+    <row r="966" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K966" s="9"/>
+    </row>
+    <row r="967" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K967" s="9"/>
+    </row>
+    <row r="968" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K968" s="9"/>
+    </row>
+    <row r="969" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K969" s="9"/>
+    </row>
+    <row r="970" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K970" s="9"/>
+    </row>
+    <row r="971" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K971" s="9"/>
+    </row>
+    <row r="972" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K972" s="9"/>
+    </row>
+    <row r="973" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K973" s="9"/>
+    </row>
+    <row r="974" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K974" s="9"/>
+    </row>
+    <row r="975" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K975" s="9"/>
+    </row>
+    <row r="976" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K976" s="9"/>
+    </row>
+    <row r="977" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K977" s="9"/>
+    </row>
+    <row r="978" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K978" s="9"/>
+    </row>
+    <row r="979" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K979" s="9"/>
+    </row>
+    <row r="980" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K980" s="9"/>
+    </row>
+    <row r="981" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K981" s="9"/>
+    </row>
+    <row r="982" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K982" s="9"/>
+    </row>
+    <row r="983" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K983" s="9"/>
+    </row>
+    <row r="984" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K984" s="9"/>
+    </row>
+    <row r="985" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K985" s="9"/>
+    </row>
+    <row r="986" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K986" s="9"/>
+    </row>
+    <row r="987" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K987" s="9"/>
+    </row>
+    <row r="988" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K988" s="9"/>
+    </row>
+    <row r="989" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K989" s="9"/>
+    </row>
+    <row r="990" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K990" s="9"/>
+    </row>
+    <row r="991" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K991" s="9"/>
+    </row>
+    <row r="992" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K992" s="9"/>
+    </row>
+    <row r="993" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K993" s="9"/>
+    </row>
+    <row r="994" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K994" s="9"/>
+    </row>
+    <row r="995" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K995" s="9"/>
+    </row>
+    <row r="996" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K996" s="9"/>
+    </row>
+    <row r="997" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K997" s="9"/>
+    </row>
+    <row r="998" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K998" s="9"/>
+    </row>
+    <row r="999" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K999" s="9"/>
+    </row>
+    <row r="1000" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K1000" s="9"/>
+    </row>
   </sheetData>
   <dataValidations count="12">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Latitude" prompt="Must be a decimal number between 45 and 75" sqref="B2:B500" xr:uid="{207D7F67-EC47-FB47-BAFE-4BD8B58A262D}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Latitude" prompt="Must be a decimal number between 45 and 75" sqref="B2:B1000" xr:uid="{207D7F67-EC47-FB47-BAFE-4BD8B58A262D}">
       <formula1>45</formula1>
       <formula2>75</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Longitude" prompt="Must be a decimal number between -180 and -125" sqref="C2:C500" xr:uid="{24C9BEDC-E9BC-D944-9DB4-A8EDD90390D3}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Longitude" prompt="Must be a decimal number between -180 and -125" sqref="C2:C1000" xr:uid="{24C9BEDC-E9BC-D944-9DB4-A8EDD90390D3}">
       <formula1>-180</formula1>
       <formula2>-125</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Timezone" prompt="Select from dropdown" sqref="D2:D500" xr:uid="{36E83BB2-3E2C-C443-8A51-8D2F191090CA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Timezone" prompt="Select from dropdown" sqref="D2:D1000" xr:uid="{36E83BB2-3E2C-C443-8A51-8D2F191090CA}">
       <formula1>timezone</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Waterbody Type" prompt="Select from dropdown" sqref="G2:G500" xr:uid="{3746069C-5BC0-7E4B-92BE-B64E8EB01D65}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Waterbody Type" prompt="Select from dropdown" sqref="G2:G1000" xr:uid="{3746069C-5BC0-7E4B-92BE-B64E8EB01D65}">
       <formula1>waterbody_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Placement" prompt="Select from dropdown" sqref="H2:H500" xr:uid="{E6CF6058-EE8A-7043-8198-AB5E9D922922}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Placement" prompt="Select from dropdown" sqref="H2:H1000" xr:uid="{E6CF6058-EE8A-7043-8198-AB5E9D922922}">
       <formula1>placement</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Well-mixed" prompt="Must be TRUE or FALSE" sqref="I2:I500" xr:uid="{48E8EEBE-DCC2-AB48-8746-D00184B3C386}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Well-mixed" prompt="Must be TRUE or FALSE" sqref="I2:I1000" xr:uid="{48E8EEBE-DCC2-AB48-8746-D00184B3C386}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Private" prompt="Must be TRUE or FALSE. If blank, will default to FALSE." sqref="L2:L500" xr:uid="{C85C6A16-F1AB-E54B-9545-F03B1B195F8A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Private" prompt="Must be TRUE or FALSE. If blank, will default to FALSE." sqref="L2:L1000" xr:uid="{C85C6A16-F1AB-E54B-9545-F03B1B195F8A}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Active" prompt="Must be TRUE or FALSE" sqref="J2:J500" xr:uid="{FD53AF57-14BA-5344-B245-D450197802DE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Active" prompt="Must be TRUE or FALSE" sqref="J2:J1000" xr:uid="{FD53AF57-14BA-5344-B245-D450197802DE}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Code" prompt="Required, must be 50 characters or less" sqref="A2:A500" xr:uid="{CA050B31-A189-984E-BB99-67A09D22D3A9}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Code" prompt="Required, must be 50 characters or less" sqref="A2:A1000" xr:uid="{CA050B31-A189-984E-BB99-67A09D22D3A9}">
       <formula1>1</formula1>
       <formula2>50</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Description" prompt="Must be 250 characters or less" sqref="E2:E500" xr:uid="{DFB84F74-8BFC-CB43-8D6B-0B37554A6BA5}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Description" prompt="Must be 250 characters or less" sqref="E2:E1000" xr:uid="{DFB84F74-8BFC-CB43-8D6B-0B37554A6BA5}">
       <formula1>1</formula1>
       <formula2>50</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Waterbody Name" prompt="Must be 50 characters or less" sqref="F2:F500" xr:uid="{EC7BD226-B03C-4941-8A9C-E9C5AA650372}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Waterbody Name" prompt="Must be 50 characters or less" sqref="F2:F1000" xr:uid="{EC7BD226-B03C-4941-8A9C-E9C5AA650372}">
       <formula1>1</formula1>
       <formula2>50</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Reference URL" prompt="URL to the data source" sqref="K2:K500" xr:uid="{18989FB2-8035-4643-8F26-DE21F2975743}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Reference URL" prompt="URL to the data source" sqref="K2:K1000" xr:uid="{18989FB2-8035-4643-8F26-DE21F2975743}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3583,7 +5081,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>80</v>
       </c>
       <c r="B1" s="10" t="s">
@@ -3624,7 +5122,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="44" x14ac:dyDescent="0.2">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="40" t="s">
         <v>81</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -3649,7 +5147,7 @@
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:13" ht="66" x14ac:dyDescent="0.2">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="40" t="s">
         <v>82</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -3690,7 +5188,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="88" x14ac:dyDescent="0.2">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="40" t="s">
         <v>84</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -3723,7 +5221,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="44" x14ac:dyDescent="0.2">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="40" t="s">
         <v>83</v>
       </c>
       <c r="B5" s="7" t="s">

--- a/app/public/static/aktemp-stations-template.xlsx
+++ b/app/public/static/aktemp-stations-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeff/git/aktemp/app/public/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8102F09-6A7C-BE42-BD21-64D6DEC0CBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EEE8B2-2D9E-D241-9779-E68120F1F399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="93">
   <si>
     <t>MAIN</t>
   </si>
@@ -113,208 +113,211 @@
     <t>X</t>
   </si>
   <si>
+    <t>decimal degrees</t>
+  </si>
+  <si>
+    <t>local timezone of station</t>
+  </si>
+  <si>
+    <t>name of waterbody</t>
+  </si>
+  <si>
+    <t>URL to external data source (e.g., Inletkeeper, USGS NWIS)</t>
+  </si>
+  <si>
+    <t>narrative description of the station location (e.g., relative to roads or other geographic features)</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>Allowed Values</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Trout Creek downstream of Rt 1 bridge</t>
+  </si>
+  <si>
+    <t>OTHER</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Reference URL</t>
+  </si>
+  <si>
+    <t>Mining Canal near Fairbanks</t>
+  </si>
+  <si>
+    <t>Echo Lake near center</t>
+  </si>
+  <si>
+    <t>ECHO</t>
+  </si>
+  <si>
+    <t>Definitions:</t>
+  </si>
+  <si>
+    <t>1. Read column descriptions and definitions below (note that definitions of various options are defined below the Columns table) and review example file configurations on EXAMPLES sheet</t>
+  </si>
+  <si>
+    <t>2. Fill out stations on STATIONS sheet</t>
+  </si>
+  <si>
+    <t>3. Copy and paste station rows (excluding header row) from STATIONS to the Stations Batch Import table in AKTEMP</t>
+  </si>
+  <si>
+    <t>5. Fix any validation or other errors that are reported (if any), and click Submit to try again.</t>
+  </si>
+  <si>
+    <t>4. Click submit to save stations to AKTEMP</t>
+  </si>
+  <si>
+    <t>brief name or ID of that station. must be unique within an organization.</t>
+  </si>
+  <si>
+    <t>decimal degrees (should be negative since AK is west of central meridian)</t>
+  </si>
+  <si>
+    <t>Placement:</t>
+  </si>
+  <si>
+    <t>TRUE, FALSE</t>
+  </si>
+  <si>
+    <t>STREAM, LAKE, OTHER</t>
+  </si>
+  <si>
+    <t>Waterbody Type:</t>
+  </si>
+  <si>
+    <t>Template and instructions for creating stations table for batch importing into AKTEMP</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>AKTEMP Batch Import Stations Template</t>
+  </si>
+  <si>
+    <t>max 50 characters</t>
+  </si>
+  <si>
+    <t>indicates if station and associated data should be kept private and not appear on the public data explorer (default = FALSE)</t>
+  </si>
+  <si>
+    <t>LIMNETIC</t>
+  </si>
+  <si>
+    <t>LAKESHORE</t>
+  </si>
+  <si>
+    <t>INLET</t>
+  </si>
+  <si>
+    <t>OUTLET</t>
+  </si>
+  <si>
+    <t>Main Channel (Stream)</t>
+  </si>
+  <si>
+    <t>Side Channel (Stream)</t>
+  </si>
+  <si>
+    <t>Limnetic Zone (Lake)</t>
+  </si>
+  <si>
+    <t>Lakeshore (Lake)</t>
+  </si>
+  <si>
+    <t>Inlet (Lake)</t>
+  </si>
+  <si>
+    <t>Outlet (Lake)</t>
+  </si>
+  <si>
+    <t>Free-flowing stream or river</t>
+  </si>
+  <si>
+    <t>Lake, pond, or reservoir</t>
+  </si>
+  <si>
+    <t>Other (wetlands, man-made channel)</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>MAIN, SIDE, LIMNETIC, LAKESHORE, INLET, OUTLET, OTHER</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>decimal between -45 and 75</t>
+  </si>
+  <si>
+    <t>decimal between -125 and -180</t>
+  </si>
+  <si>
+    <t>type of waterbody (see definitions below)</t>
+  </si>
+  <si>
+    <t>location within waterbody (see definitions below)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indicates if station is located within well-mixed portion of the waterbody </t>
+  </si>
+  <si>
+    <t>indicates if station is actively monitored</t>
+  </si>
+  <si>
+    <t>SITE 001</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>A minimal example with only the required fields provided</t>
+  </si>
+  <si>
+    <t>Station in the main channel of a free-flowing stream, with data obtained from USGS NWIS.</t>
+  </si>
+  <si>
+    <t>An active station in the well-mixed, limnetic zone of a lake</t>
+  </si>
+  <si>
+    <t>Station in the side channel of a free-flowing stream, marked as private so it does not appear in the public data explorer</t>
+  </si>
+  <si>
+    <t>Timezone:</t>
+  </si>
+  <si>
+    <t>US/Aleutian</t>
+  </si>
+  <si>
+    <t>US/Pacific</t>
+  </si>
+  <si>
+    <t>US/Aleutian (UTC-10 / UTC-9)</t>
+  </si>
+  <si>
+    <t>US/Alaska (UTC-9 / UTC-8)</t>
+  </si>
+  <si>
+    <t>US/Aleutian, US/Alaska, US/Pacific</t>
+  </si>
+  <si>
+    <t>US/Pacific (UTC-8 / UTC-7)</t>
+  </si>
+  <si>
     <t>max 250 characters</t>
   </si>
   <si>
-    <t>decimal degrees</t>
-  </si>
-  <si>
-    <t>local timezone of station</t>
-  </si>
-  <si>
-    <t>name of waterbody</t>
-  </si>
-  <si>
-    <t>URL to external data source (e.g., Inletkeeper, USGS NWIS)</t>
-  </si>
-  <si>
-    <t>narrative description of the station location (e.g., relative to roads or other geographic features)</t>
-  </si>
-  <si>
-    <t>Required</t>
-  </si>
-  <si>
-    <t>Allowed Values</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Trout Creek downstream of Rt 1 bridge</t>
-  </si>
-  <si>
-    <t>OTHER</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Reference URL</t>
-  </si>
-  <si>
-    <t>Mining Canal near Fairbanks</t>
-  </si>
-  <si>
-    <t>Echo Lake near center</t>
-  </si>
-  <si>
-    <t>ECHO</t>
-  </si>
-  <si>
-    <t>Definitions:</t>
-  </si>
-  <si>
-    <t>1. Read column descriptions and definitions below (note that definitions of various options are defined below the Columns table) and review example file configurations on EXAMPLES sheet</t>
-  </si>
-  <si>
-    <t>2. Fill out stations on STATIONS sheet</t>
-  </si>
-  <si>
-    <t>3. Copy and paste station rows (excluding header row) from STATIONS to the Stations Batch Import table in AKTEMP</t>
-  </si>
-  <si>
-    <t>5. Fix any validation or other errors that are reported (if any), and click Submit to try again.</t>
-  </si>
-  <si>
-    <t>4. Click submit to save stations to AKTEMP</t>
-  </si>
-  <si>
-    <t>brief name or ID of that station. must be unique within an organization.</t>
-  </si>
-  <si>
-    <t>decimal degrees (should be negative since AK is west of central meridian)</t>
-  </si>
-  <si>
-    <t>Placement:</t>
-  </si>
-  <si>
-    <t>TRUE, FALSE</t>
-  </si>
-  <si>
-    <t>STREAM, LAKE, OTHER</t>
-  </si>
-  <si>
-    <t>Waterbody Type:</t>
-  </si>
-  <si>
-    <t>Template and instructions for creating stations table for batch importing into AKTEMP</t>
-  </si>
-  <si>
-    <t>Column</t>
-  </si>
-  <si>
-    <t>AKTEMP Batch Import Stations Template</t>
-  </si>
-  <si>
-    <t>max 50 characters</t>
-  </si>
-  <si>
-    <t>indicates if station and associated data should be kept private and not appear on the public data explorer (default = FALSE)</t>
-  </si>
-  <si>
-    <t>LIMNETIC</t>
-  </si>
-  <si>
-    <t>LAKESHORE</t>
-  </si>
-  <si>
-    <t>INLET</t>
-  </si>
-  <si>
-    <t>OUTLET</t>
-  </si>
-  <si>
-    <t>Main Channel (Stream)</t>
-  </si>
-  <si>
-    <t>Side Channel (Stream)</t>
-  </si>
-  <si>
-    <t>Limnetic Zone (Lake)</t>
-  </si>
-  <si>
-    <t>Lakeshore (Lake)</t>
-  </si>
-  <si>
-    <t>Inlet (Lake)</t>
-  </si>
-  <si>
-    <t>Outlet (Lake)</t>
-  </si>
-  <si>
-    <t>Free-flowing stream or river</t>
-  </si>
-  <si>
-    <t>Lake, pond, or reservoir</t>
-  </si>
-  <si>
-    <t>Other (wetlands, man-made channel)</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>MAIN, SIDE, LIMNETIC, LAKESHORE, INLET, OUTLET, OTHER</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>decimal between -45 and 75</t>
-  </si>
-  <si>
-    <t>decimal between -125 and -180</t>
-  </si>
-  <si>
-    <t>type of waterbody (see definitions below)</t>
-  </si>
-  <si>
-    <t>location within waterbody (see definitions below)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">indicates if station is located within well-mixed portion of the waterbody </t>
-  </si>
-  <si>
-    <t>indicates if station is actively monitored</t>
-  </si>
-  <si>
-    <t>SITE 001</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>A minimal example with only the required fields provided</t>
-  </si>
-  <si>
-    <t>Station in the main channel of a free-flowing stream, with data obtained from USGS NWIS.</t>
-  </si>
-  <si>
-    <t>An active station in the well-mixed, limnetic zone of a lake</t>
-  </si>
-  <si>
-    <t>Station in the side channel of a free-flowing stream, marked as private so it does not appear in the public data explorer</t>
-  </si>
-  <si>
-    <t>Timezone:</t>
-  </si>
-  <si>
-    <t>US/Aleutian</t>
-  </si>
-  <si>
-    <t>US/Pacific</t>
-  </si>
-  <si>
-    <t>US/Aleutian (UTC-10 / UTC-9)</t>
-  </si>
-  <si>
-    <t>US/Alaska (UTC-9 / UTC-8)</t>
-  </si>
-  <si>
-    <t>US/Aleutian, US/Alaska, US/Pacific</t>
-  </si>
-  <si>
-    <t>US/Pacific (UTC-8 / UTC-7)</t>
+    <t>max 100 characters</t>
   </si>
 </sst>
 </file>
@@ -1564,7 +1567,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1579,7 +1584,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1587,7 +1592,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="19">
-        <v>44861</v>
+        <v>44882</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1599,7 +1604,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1611,7 +1616,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="41"/>
       <c r="D7" s="41"/>
@@ -1620,25 +1625,25 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1649,31 +1654,31 @@
         <v>12</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="E13" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" x14ac:dyDescent="0.25">
@@ -1685,10 +1690,10 @@
         <v>23</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20" x14ac:dyDescent="0.25">
@@ -1700,10 +1705,10 @@
         <v>23</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20" x14ac:dyDescent="0.25">
@@ -1715,10 +1720,10 @@
         <v>23</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="40" x14ac:dyDescent="0.25">
@@ -1728,10 +1733,10 @@
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="22" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20" x14ac:dyDescent="0.25">
@@ -1740,10 +1745,10 @@
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="22" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20" x14ac:dyDescent="0.25">
@@ -1752,10 +1757,10 @@
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="40" x14ac:dyDescent="0.25">
@@ -1765,10 +1770,10 @@
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20" x14ac:dyDescent="0.25">
@@ -1777,10 +1782,10 @@
       </c>
       <c r="C22" s="23"/>
       <c r="D22" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20" x14ac:dyDescent="0.25">
@@ -1789,22 +1794,22 @@
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20" x14ac:dyDescent="0.25">
       <c r="B24" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="40" x14ac:dyDescent="0.25">
@@ -1813,24 +1818,24 @@
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="27" t="s">
-        <v>86</v>
-      </c>
       <c r="D27" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1839,27 +1844,27 @@
         <v>1</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" s="18"/>
       <c r="C29" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C30" s="27" t="s">
         <v>2</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1868,27 +1873,27 @@
         <v>4</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" s="18"/>
       <c r="C32" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C33" s="32" t="s">
         <v>0</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
@@ -1897,52 +1902,52 @@
         <v>3</v>
       </c>
       <c r="D34" s="36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="31"/>
       <c r="C35" s="33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D35" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="31"/>
       <c r="C36" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D36" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="31"/>
       <c r="C37" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D37" s="36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="31"/>
       <c r="C38" s="33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D38" s="36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="15"/>
       <c r="C39" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D39" s="37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1960,7 +1965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1975,7 +1980,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>14</v>
@@ -2005,7 +2010,7 @@
         <v>20</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L1" s="30" t="s">
         <v>22</v>
@@ -5040,15 +5045,15 @@
       <formula1>1</formula1>
       <formula2>50</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Description" prompt="Must be 250 characters or less" sqref="E2:E1000" xr:uid="{DFB84F74-8BFC-CB43-8D6B-0B37554A6BA5}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Reference URL" prompt="URL to the data source" sqref="K2:K1000" xr:uid="{18989FB2-8035-4643-8F26-DE21F2975743}"/>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Description" prompt="Must be 250 characters or less" sqref="E2:E1000" xr:uid="{39F50974-7401-E945-8A4B-6E4AD42E4AD4}">
+      <formula1>0</formula1>
+      <formula2>250</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Waterbody Name" prompt="Must be 100 characters or less" sqref="F2:F1000" xr:uid="{5B1EAD85-CCEF-6A42-9C47-8D98224FECFD}">
       <formula1>1</formula1>
-      <formula2>50</formula2>
+      <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Waterbody Name" prompt="Must be 50 characters or less" sqref="F2:F1000" xr:uid="{EC7BD226-B03C-4941-8A9C-E9C5AA650372}">
-      <formula1>1</formula1>
-      <formula2>50</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Reference URL" prompt="URL to the data source" sqref="K2:K1000" xr:uid="{18989FB2-8035-4643-8F26-DE21F2975743}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5082,10 +5087,10 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>14</v>
@@ -5115,7 +5120,7 @@
         <v>20</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M1" s="10" t="s">
         <v>22</v>
@@ -5123,10 +5128,10 @@
     </row>
     <row r="2" spans="1:13" ht="44" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" s="7">
         <v>61.5</v>
@@ -5148,7 +5153,7 @@
     </row>
     <row r="3" spans="1:13" ht="66" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>7</v>
@@ -5163,7 +5168,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>7</v>
@@ -5189,7 +5194,7 @@
     </row>
     <row r="4" spans="1:13" ht="88" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>5</v>
@@ -5204,7 +5209,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7" t="s">
@@ -5222,10 +5227,10 @@
     </row>
     <row r="5" spans="1:13" ht="44" x14ac:dyDescent="0.2">
       <c r="A5" s="40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="7">
         <v>63.98</v>
@@ -5237,7 +5242,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>8</v>
@@ -5246,7 +5251,7 @@
         <v>4</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J5" s="7" t="b">
         <v>1</v>
